--- a/python_module/PosFeature/group2grade_models_score.xlsx
+++ b/python_module/PosFeature/group2grade_models_score.xlsx
@@ -22,20 +22,21 @@
     <sheet name="M" sheetId="13" r:id="rId13"/>
     <sheet name="T" sheetId="14" r:id="rId14"/>
     <sheet name="X" sheetId="15" r:id="rId15"/>
-    <sheet name="I" sheetId="16" r:id="rId16"/>
-    <sheet name="Nu" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="7">
+  <si>
+    <t>LogisticRegression</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
   <si>
     <t>SVC</t>
-  </si>
-  <si>
-    <t>LinearSVC</t>
   </si>
   <si>
     <t>GaussianNB</t>
@@ -44,10 +45,7 @@
     <t>MultinomialNB</t>
   </si>
   <si>
-    <t>ComplementNB</t>
-  </si>
-  <si>
-    <t>BernoulliNB</t>
+    <t>RandomForest</t>
   </si>
   <si>
     <t>DecisionTreeClassifier</t>
@@ -408,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,25 +440,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="C2">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="D2">
         <v>0.5128205128205128</v>
       </c>
-      <c r="C2">
-        <v>0.358974358974359</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.4615384615384616</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.5128205128205128</v>
       </c>
-      <c r="F2">
-        <v>0.4358974358974359</v>
-      </c>
       <c r="G2">
-        <v>0.3333333333333333</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="H2">
-        <v>0.5897435897435898</v>
+        <v>0.5128205128205128</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -468,22 +466,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5263157894736842</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.3947368421052632</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D3">
         <v>0.5263157894736842</v>
       </c>
       <c r="E3">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="F3">
         <v>0.4473684210526316</v>
       </c>
-      <c r="F3">
-        <v>0.4736842105263158</v>
-      </c>
       <c r="G3">
-        <v>0.3421052631578947</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="H3">
         <v>0.5789473684210527</v>
@@ -494,25 +492,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4736842105263158</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C4">
         <v>0.4736842105263158</v>
       </c>
       <c r="D4">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="E4">
         <v>0.4473684210526316</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.3684210526315789</v>
       </c>
-      <c r="F4">
-        <v>0.4473684210526316</v>
-      </c>
       <c r="G4">
-        <v>0.3421052631578947</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="H4">
-        <v>0.4473684210526316</v>
+        <v>0.3947368421052632</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -520,25 +518,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C5">
-        <v>0.3684210526315789</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="D5">
         <v>0.5</v>
       </c>
       <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
         <v>0.4473684210526316</v>
       </c>
-      <c r="F5">
-        <v>0.4736842105263158</v>
-      </c>
       <c r="G5">
-        <v>0.3421052631578947</v>
+        <v>0.5</v>
       </c>
       <c r="H5">
-        <v>0.3947368421052632</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -549,22 +547,22 @@
         <v>0.4864864864864865</v>
       </c>
       <c r="C6">
-        <v>0.3783783783783784</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="D6">
+        <v>0.4864864864864865</v>
+      </c>
+      <c r="E6">
         <v>0.4324324324324325</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.3243243243243243</v>
       </c>
-      <c r="F6">
-        <v>0.4594594594594595</v>
-      </c>
       <c r="G6">
-        <v>0.3513513513513514</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="H6">
-        <v>0.5135135135135135</v>
+        <v>0.4864864864864865</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -572,25 +570,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.5675675675675675</v>
+      </c>
+      <c r="C7">
+        <v>0.5405405405405406</v>
+      </c>
+      <c r="D7">
         <v>0.7027027027027027</v>
       </c>
-      <c r="C7">
-        <v>0.5675675675675675</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.6756756756756757</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.6486486486486487</v>
       </c>
-      <c r="F7">
-        <v>0.4864864864864865</v>
-      </c>
       <c r="G7">
-        <v>0.3513513513513514</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="H7">
-        <v>0.5675675675675675</v>
+        <v>0.5945945945945946</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -598,25 +596,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="C8">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="D8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="C8">
+      <c r="E8">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="F8">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="G8">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="H8">
         <v>0.4444444444444444</v>
-      </c>
-      <c r="D8">
-        <v>0.6388888888888888</v>
-      </c>
-      <c r="E8">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="H8">
-        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -624,25 +622,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="C9">
         <v>0.6111111111111112</v>
       </c>
-      <c r="C9">
-        <v>0.4722222222222222</v>
-      </c>
       <c r="D9">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="E9">
         <v>0.5277777777777778</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.5555555555555556</v>
       </c>
-      <c r="F9">
-        <v>0.4444444444444444</v>
-      </c>
       <c r="G9">
-        <v>0.3611111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H9">
-        <v>0.5277777777777778</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -650,25 +648,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6111111111111112</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C10">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D10">
         <v>0.6111111111111112</v>
       </c>
       <c r="E10">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="F10">
         <v>0.5277777777777778</v>
       </c>
-      <c r="F10">
-        <v>0.4166666666666667</v>
-      </c>
       <c r="G10">
-        <v>0.3611111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H10">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -676,25 +674,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="C11">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="D11">
         <v>0.6764705882352942</v>
       </c>
-      <c r="C11">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.5294117647058824</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.5882352941176471</v>
       </c>
-      <c r="F11">
-        <v>0.4705882352941176</v>
-      </c>
       <c r="G11">
-        <v>0.3529411764705883</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="H11">
-        <v>0.4411764705882353</v>
+        <v>0.4117647058823529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.5431313189827122</v>
+      </c>
+      <c r="C12">
+        <v>0.5599709855127812</v>
+      </c>
+      <c r="D12">
+        <v>0.5767369179133885</v>
+      </c>
+      <c r="E12">
+        <v>0.5350520322656547</v>
+      </c>
+      <c r="F12">
+        <v>0.4976075563536864</v>
+      </c>
+      <c r="G12">
+        <v>0.5491962908371576</v>
+      </c>
+      <c r="H12">
+        <v>0.4983736475222543</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +728,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -738,22 +762,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C2">
-        <v>0.4444444444444444</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D2">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
         <v>0.4444444444444444</v>
       </c>
       <c r="F2">
-        <v>0.4166666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G2">
-        <v>0.1944444444444444</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="H2">
         <v>0.3888888888888889</v>
@@ -764,22 +788,22 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="C3">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="D3">
         <v>0.4444444444444444</v>
       </c>
-      <c r="C3">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.3888888888888889</v>
       </c>
-      <c r="E3">
-        <v>0.5</v>
-      </c>
       <c r="F3">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.3055555555555556</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="H3">
         <v>0.5</v>
@@ -790,25 +814,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4571428571428571</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C4">
         <v>0.4571428571428571</v>
       </c>
       <c r="D4">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="E4">
         <v>0.3428571428571429</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.4285714285714285</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.4571428571428571</v>
       </c>
-      <c r="G4">
-        <v>0.2</v>
-      </c>
       <c r="H4">
-        <v>0.4</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -816,22 +840,22 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="D5">
         <v>0.4571428571428571</v>
       </c>
-      <c r="C5">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.3428571428571429</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.5428571428571428</v>
       </c>
-      <c r="F5">
-        <v>0.4571428571428571</v>
-      </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="H5">
         <v>0.5142857142857142</v>
@@ -842,22 +866,22 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="C6">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="D6">
         <v>0.4705882352941176</v>
       </c>
-      <c r="C6">
+      <c r="E6">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="F6">
+        <v>0.3823529411764706</v>
+      </c>
+      <c r="G6">
         <v>0.4411764705882353</v>
-      </c>
-      <c r="D6">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="E6">
-        <v>0.3823529411764706</v>
-      </c>
-      <c r="F6">
-        <v>0.4411764705882353</v>
-      </c>
-      <c r="G6">
-        <v>0.2058823529411765</v>
       </c>
       <c r="H6">
         <v>0.4117647058823529</v>
@@ -868,25 +892,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.4848484848484849</v>
+      </c>
+      <c r="C7">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D7">
         <v>0.5454545454545454</v>
       </c>
-      <c r="C7">
+      <c r="E7">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="F7">
         <v>0.4848484848484849</v>
       </c>
-      <c r="D7">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="E7">
-        <v>0.4848484848484849</v>
-      </c>
-      <c r="F7">
-        <v>0.4545454545454545</v>
-      </c>
       <c r="G7">
-        <v>0.2727272727272727</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="H7">
-        <v>0.3636363636363636</v>
+        <v>0.3939393939393939</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -894,25 +918,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="C8">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D8">
         <v>0.6060606060606061</v>
       </c>
-      <c r="C8">
-        <v>0.5151515151515151</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.4848484848484849</v>
-      </c>
-      <c r="E8">
-        <v>0.4242424242424243</v>
       </c>
       <c r="F8">
         <v>0.4242424242424243</v>
       </c>
       <c r="G8">
-        <v>0.1515151515151515</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="H8">
-        <v>0.5151515151515151</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -920,22 +944,22 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.46875</v>
+      </c>
+      <c r="C9">
+        <v>0.40625</v>
+      </c>
+      <c r="D9">
         <v>0.53125</v>
       </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.46875</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.4375</v>
       </c>
-      <c r="F9">
-        <v>0.40625</v>
-      </c>
       <c r="G9">
-        <v>0.3125</v>
+        <v>0.4375</v>
       </c>
       <c r="H9">
         <v>0.5</v>
@@ -946,25 +970,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="C10">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="D10">
         <v>0.4516129032258064</v>
       </c>
-      <c r="C10">
+      <c r="E10">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="F10">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="G10">
+        <v>0.5483870967741935</v>
+      </c>
+      <c r="H10">
         <v>0.4193548387096774</v>
-      </c>
-      <c r="D10">
-        <v>0.2903225806451613</v>
-      </c>
-      <c r="E10">
-        <v>0.3870967741935484</v>
-      </c>
-      <c r="F10">
-        <v>0.4193548387096774</v>
-      </c>
-      <c r="G10">
-        <v>0.3225806451612903</v>
-      </c>
-      <c r="H10">
-        <v>0.5483870967741935</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -972,25 +996,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="C11">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="D11">
         <v>0.6333333333333333</v>
       </c>
-      <c r="C11">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.4666666666666667</v>
       </c>
-      <c r="F11">
-        <v>0.4333333333333333</v>
-      </c>
       <c r="G11">
-        <v>0.2666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="H11">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.4638109082831569</v>
+      </c>
+      <c r="C12">
+        <v>0.4134189738945432</v>
+      </c>
+      <c r="D12">
+        <v>0.5097029782098567</v>
+      </c>
+      <c r="E12">
+        <v>0.3962612178302406</v>
+      </c>
+      <c r="F12">
+        <v>0.449858030700061</v>
+      </c>
+      <c r="G12">
+        <v>0.4857366597665459</v>
+      </c>
+      <c r="H12">
+        <v>0.451135042482291</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1034,22 +1084,22 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="C2">
+        <v>0.4871794871794872</v>
+      </c>
+      <c r="D2">
         <v>0.4358974358974359</v>
       </c>
-      <c r="C2">
-        <v>0.4102564102564102</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.358974358974359</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.4871794871794872</v>
       </c>
-      <c r="F2">
-        <v>0.4358974358974359</v>
-      </c>
       <c r="G2">
-        <v>0.358974358974359</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="H2">
         <v>0.282051282051282</v>
@@ -1060,25 +1110,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="C3">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="D3">
         <v>0.5526315789473685</v>
       </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.4473684210526316</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.5789473684210527</v>
       </c>
-      <c r="F3">
-        <v>0.4736842105263158</v>
-      </c>
       <c r="G3">
-        <v>0.3421052631578947</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="H3">
-        <v>0.3421052631578947</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1086,25 +1136,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.4864864864864865</v>
+      </c>
+      <c r="C4">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="D4">
         <v>0.3783783783783784</v>
       </c>
-      <c r="C4">
-        <v>0.4054054054054054</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.3513513513513514</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.4864864864864865</v>
       </c>
-      <c r="F4">
-        <v>0.4324324324324325</v>
-      </c>
       <c r="G4">
-        <v>0.3243243243243243</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="H4">
-        <v>0.4324324324324325</v>
+        <v>0.4594594594594595</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1112,25 +1162,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.5675675675675675</v>
+      </c>
+      <c r="C5">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="D5">
         <v>0.4864864864864865</v>
       </c>
-      <c r="C5">
-        <v>0.5675675675675675</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.4594594594594595</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.4864864864864865</v>
       </c>
-      <c r="F5">
-        <v>0.4594594594594595</v>
-      </c>
       <c r="G5">
+        <v>0.4054054054054054</v>
+      </c>
+      <c r="H5">
         <v>0.3513513513513514</v>
-      </c>
-      <c r="H5">
-        <v>0.2972972972972973</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1138,25 +1188,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="C6">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D6">
         <v>0.3055555555555556</v>
       </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.25</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.3888888888888889</v>
       </c>
-      <c r="F6">
-        <v>0.4166666666666667</v>
-      </c>
       <c r="G6">
-        <v>0.3055555555555556</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="H6">
-        <v>0.3611111111111111</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1164,25 +1214,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="C7">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="D7">
         <v>0.5833333333333334</v>
       </c>
-      <c r="C7">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.3611111111111111</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.5277777777777778</v>
       </c>
-      <c r="F7">
-        <v>0.4722222222222222</v>
-      </c>
       <c r="G7">
-        <v>0.3333333333333333</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="H7">
-        <v>0.6666666666666666</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1190,25 +1240,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C8">
         <v>0.4857142857142857</v>
       </c>
       <c r="D8">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="E8">
         <v>0.3142857142857143</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.4857142857142857</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.4571428571428571</v>
       </c>
-      <c r="G8">
-        <v>0.3428571428571429</v>
-      </c>
       <c r="H8">
-        <v>0.5142857142857142</v>
+        <v>0.4857142857142857</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1216,25 +1266,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5142857142857142</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C9">
         <v>0.4285714285714285</v>
       </c>
       <c r="D9">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="E9">
         <v>0.3428571428571429</v>
-      </c>
-      <c r="E9">
-        <v>0.4</v>
       </c>
       <c r="F9">
         <v>0.4</v>
       </c>
       <c r="G9">
-        <v>0.3428571428571429</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H9">
-        <v>0.4</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1242,25 +1292,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4545454545454545</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C10">
         <v>0.5151515151515151</v>
       </c>
       <c r="D10">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="E10">
         <v>0.3636363636363636</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.4848484848484849</v>
       </c>
-      <c r="F10">
-        <v>0.4545454545454545</v>
-      </c>
       <c r="G10">
-        <v>0.3333333333333333</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="H10">
-        <v>0.303030303030303</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1268,25 +1318,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="C11">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="D11">
         <v>0.5757575757575758</v>
       </c>
-      <c r="C11">
-        <v>0.4242424242424243</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.2121212121212121</v>
-      </c>
-      <c r="E11">
-        <v>0.4242424242424243</v>
       </c>
       <c r="F11">
         <v>0.4242424242424243</v>
       </c>
       <c r="G11">
-        <v>0.303030303030303</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="H11">
-        <v>0.5757575757575758</v>
+        <v>0.4545454545454545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.4804534567692461</v>
+      </c>
+      <c r="C12">
+        <v>0.4306741290951817</v>
+      </c>
+      <c r="D12">
+        <v>0.494401437033016</v>
+      </c>
+      <c r="E12">
+        <v>0.3461165134849346</v>
+      </c>
+      <c r="F12">
+        <v>0.4750571690045374</v>
+      </c>
+      <c r="G12">
+        <v>0.4338278001435897</v>
+      </c>
+      <c r="H12">
+        <v>0.4134336992231729</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1372,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1330,25 +1406,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="C2">
         <v>0.4615384615384616</v>
-      </c>
-      <c r="C2">
-        <v>0.5384615384615384</v>
       </c>
       <c r="D2">
         <v>0.4615384615384616</v>
       </c>
       <c r="E2">
-        <v>0.4358974358974359</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="F2">
         <v>0.4358974358974359</v>
       </c>
       <c r="G2">
-        <v>0.282051282051282</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="H2">
-        <v>0.5641025641025641</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1359,22 +1435,22 @@
         <v>0.6052631578947368</v>
       </c>
       <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0.6052631578947368</v>
+      </c>
+      <c r="E3">
         <v>0.5526315789473685</v>
       </c>
-      <c r="D3">
-        <v>0.5526315789473685</v>
-      </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.5789473684210527</v>
       </c>
-      <c r="F3">
-        <v>0.4736842105263158</v>
-      </c>
       <c r="G3">
-        <v>0.3421052631578947</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="H3">
-        <v>0.5263157894736842</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1382,25 +1458,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.5526315789473685</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
         <v>0.5263157894736842</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>0.4473684210526316</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="G4">
+        <v>0.3947368421052632</v>
+      </c>
+      <c r="H4">
         <v>0.4473684210526316</v>
-      </c>
-      <c r="E4">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="F4">
-        <v>0.4473684210526316</v>
-      </c>
-      <c r="G4">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1408,25 +1484,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="C5">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="D5">
         <v>0.4736842105263158</v>
       </c>
-      <c r="C5">
-        <v>0.3947368421052632</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.4210526315789473</v>
-      </c>
-      <c r="E5">
-        <v>0.4736842105263158</v>
       </c>
       <c r="F5">
         <v>0.4736842105263158</v>
       </c>
       <c r="G5">
-        <v>0.3157894736842105</v>
+        <v>0.5</v>
       </c>
       <c r="H5">
-        <v>0.3947368421052632</v>
+        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1437,22 +1513,22 @@
         <v>0.4864864864864865</v>
       </c>
       <c r="C6">
-        <v>0.5135135135135135</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="D6">
+        <v>0.4864864864864865</v>
+      </c>
+      <c r="E6">
         <v>0.3513513513513514</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.4324324324324325</v>
       </c>
-      <c r="F6">
-        <v>0.4594594594594595</v>
-      </c>
       <c r="G6">
-        <v>0.3513513513513514</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="H6">
-        <v>0.5675675675675675</v>
+        <v>0.5945945945945946</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1463,19 +1539,19 @@
         <v>0.6216216216216216</v>
       </c>
       <c r="C7">
-        <v>0.5135135135135135</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="D7">
+        <v>0.6216216216216216</v>
+      </c>
+      <c r="E7">
         <v>0.5405405405405406</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.5945945945945946</v>
       </c>
-      <c r="F7">
-        <v>0.4864864864864865</v>
-      </c>
       <c r="G7">
-        <v>0.3513513513513514</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="H7">
         <v>0.4864864864864865</v>
@@ -1486,25 +1562,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D8">
         <v>0.6111111111111112</v>
       </c>
-      <c r="C8">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
-      </c>
       <c r="E8">
         <v>0.5</v>
       </c>
       <c r="F8">
-        <v>0.4722222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.3611111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="H8">
-        <v>0.3888888888888889</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1512,25 +1588,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="C9">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D9">
         <v>0.5277777777777778</v>
-      </c>
-      <c r="C9">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="D9">
-        <v>0.4444444444444444</v>
       </c>
       <c r="E9">
         <v>0.4444444444444444</v>
       </c>
       <c r="F9">
-        <v>0.4166666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H9">
-        <v>0.5277777777777778</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1538,25 +1614,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="C10">
         <v>0.5142857142857142</v>
       </c>
-      <c r="C10">
-        <v>0.4285714285714285</v>
-      </c>
       <c r="D10">
-        <v>0.4857142857142857</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="E10">
         <v>0.4857142857142857</v>
       </c>
       <c r="F10">
-        <v>0.3714285714285714</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="G10">
-        <v>0.3428571428571429</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H10">
-        <v>0.4857142857142857</v>
+        <v>0.5142857142857142</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1564,25 +1640,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.4848484848484849</v>
+      </c>
+      <c r="C11">
         <v>0.5454545454545454</v>
       </c>
-      <c r="C11">
-        <v>0.4242424242424243</v>
-      </c>
       <c r="D11">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="E11">
         <v>0.5151515151515151</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.4848484848484849</v>
       </c>
-      <c r="F11">
-        <v>0.4242424242424243</v>
-      </c>
       <c r="G11">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="H11">
-        <v>0.5757575757575758</v>
+        <v>0.5151515151515151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.5040096879570564</v>
+      </c>
+      <c r="C12">
+        <v>0.5019698193382404</v>
+      </c>
+      <c r="D12">
+        <v>0.5373538876170455</v>
+      </c>
+      <c r="E12">
+        <v>0.4719793230319546</v>
+      </c>
+      <c r="F12">
+        <v>0.495687904635273</v>
+      </c>
+      <c r="G12">
+        <v>0.5203090413616729</v>
+      </c>
+      <c r="H12">
+        <v>0.5122664059506166</v>
       </c>
     </row>
   </sheetData>
@@ -1592,7 +1694,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1626,25 +1728,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5641025641025641</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C2">
         <v>0.4358974358974359</v>
       </c>
       <c r="D2">
+        <v>0.5641025641025641</v>
+      </c>
+      <c r="E2">
         <v>0.4358974358974359</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.4615384615384616</v>
       </c>
-      <c r="F2">
-        <v>0.4358974358974359</v>
-      </c>
       <c r="G2">
+        <v>0.4871794871794872</v>
+      </c>
+      <c r="H2">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="H2">
-        <v>0.358974358974359</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1652,25 +1754,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C3">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.2368421052631579</v>
+      </c>
+      <c r="F3">
+        <v>0.5526315789473685</v>
+      </c>
+      <c r="G3">
         <v>0.4473684210526316</v>
       </c>
-      <c r="D3">
-        <v>0.2368421052631579</v>
-      </c>
-      <c r="E3">
-        <v>0.5526315789473685</v>
-      </c>
-      <c r="F3">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="G3">
-        <v>0.2105263157894737</v>
-      </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1681,22 +1783,22 @@
         <v>0.5263157894736842</v>
       </c>
       <c r="C4">
-        <v>0.4736842105263158</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D4">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="E4">
         <v>0.3157894736842105</v>
       </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
       <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
         <v>0.4473684210526316</v>
       </c>
-      <c r="G4">
-        <v>0.2105263157894737</v>
-      </c>
       <c r="H4">
-        <v>0.4210526315789473</v>
+        <v>0.2894736842105263</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1704,25 +1806,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="C5">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="D5">
         <v>0.4210526315789473</v>
       </c>
-      <c r="C5">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.3157894736842105</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.5526315789473685</v>
       </c>
-      <c r="F5">
-        <v>0.4736842105263158</v>
-      </c>
       <c r="G5">
-        <v>0.3421052631578947</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="H5">
-        <v>0.3947368421052632</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1733,22 +1835,22 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="C6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D6">
         <v>0.3611111111111111</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.3055555555555556</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.4166666666666667</v>
       </c>
-      <c r="F6">
-        <v>0.4444444444444444</v>
-      </c>
       <c r="G6">
-        <v>0.3333333333333333</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="H6">
-        <v>0.4444444444444444</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1756,25 +1858,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="C7">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="D7">
         <v>0.6285714285714286</v>
       </c>
-      <c r="C7">
-        <v>0.4857142857142857</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.3428571428571429</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.5714285714285714</v>
       </c>
-      <c r="F7">
-        <v>0.4857142857142857</v>
-      </c>
       <c r="G7">
-        <v>0.2285714285714286</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H7">
-        <v>0.5428571428571428</v>
+        <v>0.5142857142857142</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1785,22 +1887,22 @@
         <v>0.6857142857142857</v>
       </c>
       <c r="C8">
-        <v>0.6285714285714286</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="D8">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="E8">
         <v>0.4285714285714285</v>
-      </c>
-      <c r="E8">
-        <v>0.4857142857142857</v>
       </c>
       <c r="F8">
         <v>0.4857142857142857</v>
       </c>
       <c r="G8">
-        <v>0.2285714285714286</v>
+        <v>0.6</v>
       </c>
       <c r="H8">
-        <v>0.4285714285714285</v>
+        <v>0.4857142857142857</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1808,25 +1910,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4857142857142857</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C9">
         <v>0.4285714285714285</v>
       </c>
       <c r="D9">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="E9">
         <v>0.2857142857142857</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.3714285714285714</v>
       </c>
-      <c r="F9">
+      <c r="G9">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="H9">
         <v>0.4</v>
-      </c>
-      <c r="G9">
-        <v>0.3428571428571429</v>
-      </c>
-      <c r="H9">
-        <v>0.3714285714285714</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1834,25 +1936,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="C10">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="D10">
         <v>0.6</v>
       </c>
-      <c r="C10">
+      <c r="E10">
+        <v>0.3142857142857143</v>
+      </c>
+      <c r="F10">
         <v>0.4571428571428571</v>
       </c>
-      <c r="D10">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="E10">
-        <v>0.4571428571428571</v>
-      </c>
-      <c r="F10">
-        <v>0.3714285714285714</v>
-      </c>
       <c r="G10">
-        <v>0.3428571428571429</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="H10">
-        <v>0.3714285714285714</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1860,25 +1962,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.4411764705882353</v>
+      </c>
+      <c r="C11">
+        <v>0.3823529411764706</v>
+      </c>
+      <c r="D11">
         <v>0.5294117647058824</v>
       </c>
-      <c r="C11">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.2941176470588235</v>
-      </c>
-      <c r="E11">
-        <v>0.4411764705882353</v>
       </c>
       <c r="F11">
         <v>0.4411764705882353</v>
       </c>
       <c r="G11">
-        <v>0.3529411764705883</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="H11">
         <v>0.5882352941176471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.5094055462940912</v>
+      </c>
+      <c r="C12">
+        <v>0.4280155138978669</v>
+      </c>
+      <c r="D12">
+        <v>0.5301993860972189</v>
+      </c>
+      <c r="E12">
+        <v>0.3275420262571965</v>
+      </c>
+      <c r="F12">
+        <v>0.4810359042402387</v>
+      </c>
+      <c r="G12">
+        <v>0.4914780352086854</v>
+      </c>
+      <c r="H12">
+        <v>0.4187942896456828</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +2016,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1925,22 +2053,22 @@
         <v>0.3870967741935484</v>
       </c>
       <c r="C2">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="D2">
         <v>0.3870967741935484</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.2258064516129032</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.4193548387096774</v>
       </c>
-      <c r="F2">
+      <c r="G2">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="H2">
         <v>0.3548387096774194</v>
-      </c>
-      <c r="G2">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="H2">
-        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1948,25 +2076,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="C3">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="D3">
         <v>0.4838709677419355</v>
       </c>
-      <c r="C3">
-        <v>0.6129032258064516</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.3548387096774194</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.4838709677419355</v>
       </c>
-      <c r="F3">
-        <v>0.2903225806451613</v>
-      </c>
       <c r="G3">
-        <v>0.2258064516129032</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="H3">
-        <v>0.4193548387096774</v>
+        <v>0.4516129032258064</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1977,22 +2105,22 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="C4">
-        <v>0.4333333333333333</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="D4">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="E4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.4</v>
       </c>
-      <c r="F4">
-        <v>0.3666666666666666</v>
-      </c>
       <c r="G4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H4">
-        <v>0.4333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2000,25 +2128,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.3793103448275862</v>
+      </c>
+      <c r="C5">
+        <v>0.4137931034482759</v>
+      </c>
+      <c r="D5">
         <v>0.4827586206896552</v>
       </c>
-      <c r="C5">
+      <c r="E5">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="F5">
+        <v>0.4827586206896552</v>
+      </c>
+      <c r="G5">
         <v>0.3793103448275862</v>
       </c>
-      <c r="D5">
-        <v>0.2068965517241379</v>
-      </c>
-      <c r="E5">
-        <v>0.4827586206896552</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.4137931034482759</v>
-      </c>
-      <c r="G5">
-        <v>0.1379310344827586</v>
-      </c>
-      <c r="H5">
-        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2026,25 +2154,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3571428571428572</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C6">
         <v>0.3571428571428572</v>
       </c>
       <c r="D6">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="E6">
         <v>0.3928571428571428</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.3571428571428572</v>
       </c>
-      <c r="F6">
+      <c r="G6">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="H6">
         <v>0.3928571428571428</v>
-      </c>
-      <c r="G6">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="H6">
-        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2052,25 +2180,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
         <v>0.3846153846153846</v>
-      </c>
-      <c r="E7">
-        <v>0.4615384615384616</v>
       </c>
       <c r="F7">
         <v>0.4615384615384616</v>
       </c>
       <c r="G7">
-        <v>0.1153846153846154</v>
+        <v>0.5</v>
       </c>
       <c r="H7">
-        <v>0.4615384615384616</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2081,22 +2209,22 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="C8">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="D8">
         <v>0.4615384615384616</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.4230769230769231</v>
-      </c>
-      <c r="E8">
-        <v>0.4615384615384616</v>
       </c>
       <c r="F8">
         <v>0.4615384615384616</v>
       </c>
       <c r="G8">
-        <v>0.2307692307692308</v>
+        <v>0.5</v>
       </c>
       <c r="H8">
-        <v>0.3846153846153846</v>
+        <v>0.3461538461538461</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2104,22 +2232,22 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="C9">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="D9">
         <v>0.4230769230769231</v>
       </c>
-      <c r="C9">
-        <v>0.4230769230769231</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.3461538461538461</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.3846153846153846</v>
       </c>
-      <c r="F9">
-        <v>0.3461538461538461</v>
-      </c>
       <c r="G9">
-        <v>0.1923076923076923</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="H9">
         <v>0.3076923076923077</v>
@@ -2130,22 +2258,22 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="C10">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="D10">
         <v>0.3846153846153846</v>
       </c>
-      <c r="C10">
+      <c r="E10">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="F10">
         <v>0.3461538461538461</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>0.3076923076923077</v>
-      </c>
-      <c r="E10">
-        <v>0.3461538461538461</v>
-      </c>
-      <c r="F10">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="G10">
-        <v>0.1538461538461539</v>
       </c>
       <c r="H10">
         <v>0.3076923076923077</v>
@@ -2162,19 +2290,45 @@
         <v>0.32</v>
       </c>
       <c r="D11">
+        <v>0.32</v>
+      </c>
+      <c r="E11">
         <v>0.2</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.36</v>
       </c>
-      <c r="F11">
-        <v>0.32</v>
-      </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H11">
-        <v>0.36</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.3912928447155365</v>
+      </c>
+      <c r="C12">
+        <v>0.339184580343646</v>
+      </c>
+      <c r="D12">
+        <v>0.4166766655665432</v>
+      </c>
+      <c r="E12">
+        <v>0.3175270650743398</v>
+      </c>
+      <c r="F12">
+        <v>0.4156973438130279</v>
+      </c>
+      <c r="G12">
+        <v>0.4219278441247296</v>
+      </c>
+      <c r="H12">
+        <v>0.4013101859208644</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2338,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2218,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2857142857142857</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C2">
         <v>0.2857142857142857</v>
@@ -2227,13 +2381,13 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="E2">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F2">
         <v>0.3571428571428572</v>
       </c>
-      <c r="F2">
-        <v>0.3214285714285715</v>
-      </c>
       <c r="G2">
-        <v>0.3571428571428572</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="H2">
         <v>0.3928571428571428</v>
@@ -2244,22 +2398,22 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="C3">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D3">
         <v>0.5357142857142857</v>
       </c>
-      <c r="C3">
+      <c r="E3">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="F3">
         <v>0.4642857142857143</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>0.3928571428571428</v>
-      </c>
-      <c r="E3">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="F3">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="G3">
-        <v>0.3571428571428572</v>
       </c>
       <c r="H3">
         <v>0.3214285714285715</v>
@@ -2270,25 +2424,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="C4">
+        <v>0.25</v>
+      </c>
+      <c r="D4">
         <v>0.3928571428571428</v>
       </c>
-      <c r="C4">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.4285714285714285</v>
-      </c>
-      <c r="E4">
-        <v>0.3571428571428572</v>
       </c>
       <c r="F4">
         <v>0.3571428571428572</v>
       </c>
       <c r="G4">
-        <v>0.3214285714285715</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="H4">
-        <v>0.3928571428571428</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2299,19 +2453,19 @@
         <v>0.5185185185185185</v>
       </c>
       <c r="C5">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="D5">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="E5">
         <v>0.4074074074074074</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="G5">
         <v>0.4074074074074074</v>
-      </c>
-      <c r="E5">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="F5">
-        <v>0.4074074074074074</v>
-      </c>
-      <c r="G5">
-        <v>0.2592592592592592</v>
       </c>
       <c r="H5">
         <v>0.4074074074074074</v>
@@ -2322,25 +2476,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="C6">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="D6">
         <v>0.2962962962962963</v>
       </c>
-      <c r="C6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.2222222222222222</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.3703703703703703</v>
       </c>
-      <c r="F6">
-        <v>0.2592592592592592</v>
-      </c>
       <c r="G6">
-        <v>0.2222222222222222</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="H6">
-        <v>0.3333333333333333</v>
+        <v>0.3703703703703703</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2348,22 +2502,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4230769230769231</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C7">
-        <v>0.5384615384615384</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="D7">
         <v>0.4230769230769231</v>
       </c>
       <c r="E7">
+        <v>0.4230769230769231</v>
+      </c>
+      <c r="F7">
         <v>0.3846153846153846</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.4615384615384616</v>
-      </c>
-      <c r="G7">
-        <v>0.3076923076923077</v>
       </c>
       <c r="H7">
         <v>0.3846153846153846</v>
@@ -2374,25 +2528,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
         <v>0.25</v>
       </c>
-      <c r="E8">
-        <v>0.5</v>
-      </c>
       <c r="F8">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.2916666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2400,22 +2554,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5217391304347826</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C9">
         <v>0.3478260869565217</v>
       </c>
       <c r="D9">
-        <v>0.391304347826087</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="E9">
         <v>0.391304347826087</v>
       </c>
       <c r="F9">
-        <v>0.3478260869565217</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="G9">
-        <v>0.2173913043478261</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="H9">
         <v>0.4347826086956522</v>
@@ -2426,22 +2580,22 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="C10">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D10">
         <v>0.4545454545454545</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>0.3636363636363636</v>
-      </c>
-      <c r="D10">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="E10">
-        <v>0.2727272727272727</v>
       </c>
       <c r="F10">
         <v>0.2727272727272727</v>
       </c>
       <c r="G10">
-        <v>0.3181818181818182</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="H10">
         <v>0.4090909090909091</v>
@@ -2452,25 +2606,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="C11">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="D11">
         <v>0.2727272727272727</v>
       </c>
-      <c r="C11">
+      <c r="E11">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="F11">
         <v>0.3181818181818182</v>
       </c>
-      <c r="D11">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="E11">
-        <v>0.3181818181818182</v>
-      </c>
-      <c r="F11">
-        <v>0.2727272727272727</v>
-      </c>
       <c r="G11">
-        <v>0.3181818181818182</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="H11">
         <v>0.4545454545454545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.3919228718141762</v>
+      </c>
+      <c r="C12">
+        <v>0.3194655183785619</v>
+      </c>
+      <c r="D12">
+        <v>0.4201189309884962</v>
+      </c>
+      <c r="E12">
+        <v>0.3528426484948224</v>
+      </c>
+      <c r="F12">
+        <v>0.3860215066736806</v>
+      </c>
+      <c r="G12">
+        <v>0.4091306640219683</v>
+      </c>
+      <c r="H12">
+        <v>0.4073907372820417</v>
       </c>
     </row>
   </sheetData>
@@ -2478,9 +2658,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2514,25 +2694,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2307692307692308</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C2">
-        <v>0.3076923076923077</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D2">
         <v>0.3846153846153846</v>
       </c>
       <c r="E2">
-        <v>0.3076923076923077</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="F2">
-        <v>0.3076923076923077</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="G2">
-        <v>0.2307692307692308</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="H2">
-        <v>0.3076923076923077</v>
+        <v>0.4358974358974359</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2540,25 +2720,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3636363636363636</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.4545454545454545</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D3">
-        <v>0.2727272727272727</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E3">
-        <v>0.3636363636363636</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="F3">
-        <v>0.3636363636363636</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="G3">
-        <v>0.2727272727272727</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="H3">
-        <v>0.3636363636363636</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2566,25 +2746,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0.1</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="E4">
-        <v>0.4</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="F4">
-        <v>0.4</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="G4">
-        <v>0.4</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>0.3947368421052632</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2592,25 +2772,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4444444444444444</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C5">
-        <v>0.4444444444444444</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="D5">
-        <v>0.3333333333333333</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E5">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.2222222222222222</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="H5">
-        <v>0.3333333333333333</v>
+        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2618,25 +2798,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.375</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C6">
-        <v>0.375</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="D6">
-        <v>0.125</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="E6">
-        <v>0.375</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="G6">
-        <v>0.375</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="H6">
-        <v>0.5</v>
+        <v>0.2972972972972973</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2644,25 +2824,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.375</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C7">
-        <v>0.375</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="E7">
-        <v>0.5</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="F7">
-        <v>0.375</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="G7">
-        <v>0.375</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="H7">
-        <v>0.5</v>
+        <v>0.5135135135135135</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2670,25 +2850,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G8">
-        <v>0.375</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H8">
-        <v>0.375</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2696,25 +2876,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2857142857142857</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C9">
-        <v>0.2857142857142857</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="D9">
-        <v>0.2857142857142857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E9">
-        <v>0.2857142857142857</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="F9">
-        <v>0.4285714285714285</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="H9">
-        <v>0.2857142857142857</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2722,25 +2902,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2857142857142857</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C10">
-        <v>0.4285714285714285</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="E10">
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="F10">
-        <v>0.2857142857142857</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G10">
-        <v>0.2857142857142857</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="H10">
-        <v>0.2857142857142857</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2748,25 +2928,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2857142857142857</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C11">
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>0.1428571428571428</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="E11">
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="F11">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.2857142857142857</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="H11">
-        <v>0.4285714285714285</v>
+        <v>0.5294117647058824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.5217442913263347</v>
+      </c>
+      <c r="C12">
+        <v>0.5229902979902981</v>
+      </c>
+      <c r="D12">
+        <v>0.5258398610565793</v>
+      </c>
+      <c r="E12">
+        <v>0.518712842397053</v>
+      </c>
+      <c r="F12">
+        <v>0.5289771552929448</v>
+      </c>
+      <c r="G12">
+        <v>0.527124522712758</v>
+      </c>
+      <c r="H12">
+        <v>0.4724950420770854</v>
       </c>
     </row>
   </sheetData>
@@ -2774,9 +2980,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2810,25 +3016,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3636363636363636</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C2">
-        <v>0.3636363636363636</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D2">
-        <v>0.2727272727272727</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="E2">
-        <v>0.2727272727272727</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="F2">
-        <v>0.2727272727272727</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G2">
-        <v>0.1818181818181818</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="H2">
-        <v>0.3636363636363636</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2836,25 +3042,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3636363636363636</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C3">
-        <v>0.09090909090909091</v>
+        <v>0.4</v>
       </c>
       <c r="D3">
-        <v>0.09090909090909091</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="E3">
-        <v>0.1818181818181818</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F3">
-        <v>0.3636363636363636</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="G3">
-        <v>0.3636363636363636</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H3">
-        <v>0.5454545454545454</v>
+        <v>0.4857142857142857</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2862,25 +3068,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09090909090909091</v>
+        <v>0.4</v>
       </c>
       <c r="C4">
-        <v>0.09090909090909091</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="D4">
-        <v>0.2727272727272727</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="E4">
-        <v>0.1818181818181818</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="F4">
-        <v>0.1818181818181818</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G4">
-        <v>0.09090909090909091</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H4">
-        <v>0.1818181818181818</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2888,25 +3094,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2727272727272727</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C5">
-        <v>0.2727272727272727</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="D5">
-        <v>0.2727272727272727</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="E5">
-        <v>0.1818181818181818</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="F5">
-        <v>0.2727272727272727</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G5">
-        <v>0.09090909090909091</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="H5">
-        <v>0.3636363636363636</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2914,25 +3120,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2727272727272727</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C6">
-        <v>0.2727272727272727</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="D6">
-        <v>0.4545454545454545</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="E6">
-        <v>0.2727272727272727</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="F6">
-        <v>0.2727272727272727</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="G6">
-        <v>0.2727272727272727</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="H6">
-        <v>0.3636363636363636</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2940,25 +3146,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.25</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C7">
-        <v>0.125</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="E7">
-        <v>0.5</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="F7">
-        <v>0.375</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="G7">
-        <v>0.25</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H7">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2966,25 +3172,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2857142857142857</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C8">
-        <v>0.2857142857142857</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="D8">
-        <v>0.2857142857142857</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="E8">
-        <v>0.4285714285714285</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="F8">
-        <v>0.1428571428571428</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G8">
-        <v>0.1428571428571428</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="H8">
-        <v>0.4285714285714285</v>
+        <v>0.4848484848484849</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2992,25 +3198,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4285714285714285</v>
+        <v>0.46875</v>
       </c>
       <c r="C9">
-        <v>0.1428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>0.2857142857142857</v>
+        <v>0.53125</v>
       </c>
       <c r="E9">
-        <v>0.2857142857142857</v>
+        <v>0.40625</v>
       </c>
       <c r="F9">
-        <v>0.2857142857142857</v>
+        <v>0.4375</v>
       </c>
       <c r="G9">
-        <v>0.2857142857142857</v>
+        <v>0.46875</v>
       </c>
       <c r="H9">
-        <v>0.4285714285714285</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3018,25 +3224,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4285714285714285</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C10">
-        <v>0.4285714285714285</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="D10">
-        <v>0.2857142857142857</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="E10">
-        <v>0.4285714285714285</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="F10">
-        <v>0.2857142857142857</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="G10">
-        <v>0.2857142857142857</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="H10">
-        <v>0.5714285714285714</v>
+        <v>0.4516129032258064</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3044,25 +3250,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2857142857142857</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C11">
-        <v>0.2857142857142857</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="D11">
-        <v>0.1428571428571428</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="E11">
-        <v>0.2857142857142857</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="F11">
-        <v>0.2857142857142857</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="G11">
-        <v>0.1428571428571428</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="H11">
-        <v>0.5714285714285714</v>
+        <v>0.5161290322580645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.4784669701213818</v>
+      </c>
+      <c r="C12">
+        <v>0.4598382031209356</v>
+      </c>
+      <c r="D12">
+        <v>0.5118388804690986</v>
+      </c>
+      <c r="E12">
+        <v>0.4307971881323399</v>
+      </c>
+      <c r="F12">
+        <v>0.4509265636851025</v>
+      </c>
+      <c r="G12">
+        <v>0.4324024211346318</v>
+      </c>
+      <c r="H12">
+        <v>0.4738777925637507</v>
       </c>
     </row>
   </sheetData>
@@ -3070,9 +3302,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3106,25 +3338,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3846153846153846</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C2">
-        <v>0.3846153846153846</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D2">
-        <v>0.3846153846153846</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="E2">
         <v>0.4871794871794872</v>
       </c>
       <c r="F2">
-        <v>0.4358974358974359</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="G2">
-        <v>0.3333333333333333</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="H2">
-        <v>0.4358974358974359</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3132,25 +3364,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4473684210526316</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C3">
-        <v>0.3684210526315789</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D3">
-        <v>0.4473684210526316</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="E3">
-        <v>0.6052631578947368</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="F3">
-        <v>0.4736842105263158</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="G3">
-        <v>0.3157894736842105</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="H3">
-        <v>0.5263157894736842</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3158,25 +3390,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3684210526315789</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C4">
-        <v>0.4210526315789473</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D4">
-        <v>0.5263157894736842</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="E4">
-        <v>0.4210526315789473</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>0.4736842105263158</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="G4">
-        <v>0.3421052631578947</v>
+        <v>0.5</v>
       </c>
       <c r="H4">
-        <v>0.4210526315789473</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3184,22 +3416,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4473684210526316</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C5">
         <v>0.4473684210526316</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="F5">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="G5">
         <v>0.4736842105263158</v>
-      </c>
-      <c r="G5">
-        <v>0.3421052631578947</v>
       </c>
       <c r="H5">
         <v>0.5</v>
@@ -3210,25 +3442,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4864864864864865</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C6">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="D6">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="E6">
         <v>0.4324324324324325</v>
       </c>
-      <c r="D6">
-        <v>0.5405405405405406</v>
-      </c>
-      <c r="E6">
-        <v>0.4594594594594595</v>
-      </c>
       <c r="F6">
-        <v>0.4864864864864865</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="G6">
-        <v>0.3513513513513514</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="H6">
-        <v>0.2972972972972973</v>
+        <v>0.5135135135135135</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3236,25 +3468,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.4594594594594595</v>
+      </c>
+      <c r="C7">
+        <v>0.4864864864864865</v>
+      </c>
+      <c r="D7">
         <v>0.6486486486486487</v>
-      </c>
-      <c r="C7">
-        <v>0.4594594594594595</v>
-      </c>
-      <c r="D7">
-        <v>0.6216216216216216</v>
       </c>
       <c r="E7">
         <v>0.5945945945945946</v>
       </c>
       <c r="F7">
-        <v>0.4864864864864865</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="G7">
-        <v>0.3513513513513514</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="H7">
-        <v>0.5135135135135135</v>
+        <v>0.6756756756756757</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3268,19 +3500,19 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="D8">
-        <v>0.5277777777777778</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="E8">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G8">
-        <v>0.3611111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H8">
-        <v>0.5277777777777778</v>
+        <v>0.4722222222222222</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3288,25 +3520,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C9">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="D9">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="E9">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="F9">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="G9">
         <v>0.5833333333333334</v>
       </c>
-      <c r="D9">
-        <v>0.6388888888888888</v>
-      </c>
-      <c r="E9">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="F9">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="G9">
-        <v>0.3611111111111111</v>
-      </c>
       <c r="H9">
-        <v>0.5277777777777778</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3314,25 +3546,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6388888888888888</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C10">
-        <v>0.5277777777777778</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="E10">
-        <v>0.5555555555555556</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="F10">
-        <v>0.4444444444444444</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G10">
-        <v>0.3611111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="H10">
-        <v>0.4444444444444444</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3343,22 +3575,48 @@
         <v>0.5588235294117647</v>
       </c>
       <c r="C11">
-        <v>0.4705882352941176</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="F11">
-        <v>0.4117647058823529</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="G11">
-        <v>0.3529411764705883</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
+        <v>0.5588235294117647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.5637436555393212</v>
+      </c>
+      <c r="C12">
+        <v>0.5335856635392238</v>
+      </c>
+      <c r="D12">
+        <v>0.5795110483190979</v>
+      </c>
+      <c r="E12">
+        <v>0.5096249857859765</v>
+      </c>
+      <c r="F12">
+        <v>0.5266085447199997</v>
+      </c>
+      <c r="G12">
+        <v>0.5271202674453448</v>
+      </c>
+      <c r="H12">
+        <v>0.5177387437449357</v>
       </c>
     </row>
   </sheetData>
@@ -3366,9 +3624,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3402,25 +3660,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4722222222222222</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C2">
-        <v>0.3888888888888889</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="D2">
-        <v>0.4722222222222222</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E2">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F2">
-        <v>0.4166666666666667</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="G2">
-        <v>0.25</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="H2">
-        <v>0.4166666666666667</v>
+        <v>0.5128205128205128</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3428,25 +3686,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3714285714285714</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C3">
-        <v>0.3428571428571429</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="D3">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0.4571428571428571</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="F3">
-        <v>0.4571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.2571428571428571</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="H3">
-        <v>0.3714285714285714</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3454,25 +3712,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3714285714285714</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C4">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0.3428571428571429</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E4">
-        <v>0.4285714285714285</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="F4">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.2285714285714286</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="H4">
-        <v>0.3142857142857143</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3480,25 +3738,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6285714285714286</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C5">
-        <v>0.4285714285714285</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D5">
-        <v>0.3714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0.4285714285714285</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="F5">
-        <v>0.4571428571428571</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="H5">
-        <v>0.4571428571428571</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3506,25 +3764,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5294117647058824</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C6">
-        <v>0.4411764705882353</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="D6">
-        <v>0.4117647058823529</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="E6">
-        <v>0.4117647058823529</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="F6">
-        <v>0.4117647058823529</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="G6">
-        <v>0.2647058823529412</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="H6">
-        <v>0.4411764705882353</v>
+        <v>0.5135135135135135</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3532,25 +3790,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6060606060606061</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C7">
-        <v>0.3939393939393939</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="D7">
-        <v>0.4848484848484849</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="E7">
-        <v>0.5757575757575758</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="F7">
-        <v>0.4848484848484849</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="G7">
-        <v>0.2424242424242424</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="H7">
-        <v>0.6060606060606061</v>
+        <v>0.5675675675675675</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3558,25 +3816,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5757575757575758</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C8">
-        <v>0.4545454545454545</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="D8">
-        <v>0.4545454545454545</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="E8">
-        <v>0.4545454545454545</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="F8">
-        <v>0.4545454545454545</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G8">
-        <v>0.2727272727272727</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="H8">
-        <v>0.4848484848484849</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3584,25 +3842,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.53125</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C9">
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>0.40625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E9">
-        <v>0.4375</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="F9">
-        <v>0.4375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G9">
-        <v>0.28125</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="H9">
-        <v>0.625</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3610,25 +3868,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4516129032258064</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C10">
-        <v>0.4838709677419355</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D10">
-        <v>0.4516129032258064</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="E10">
-        <v>0.4516129032258064</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="F10">
-        <v>0.3870967741935484</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="G10">
-        <v>0.2903225806451613</v>
+        <v>0.5</v>
       </c>
       <c r="H10">
-        <v>0.5161290322580645</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3636,25 +3894,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5806451612903226</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C11">
-        <v>0.4516129032258064</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="D11">
-        <v>0.4838709677419355</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="E11">
-        <v>0.4193548387096774</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="F11">
-        <v>0.4193548387096774</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.2580645161290323</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="H11">
-        <v>0.4838709677419355</v>
+        <v>0.5882352941176471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.5514947967734345</v>
+      </c>
+      <c r="C12">
+        <v>0.4402925728777122</v>
+      </c>
+      <c r="D12">
+        <v>0.549904113449005</v>
+      </c>
+      <c r="E12">
+        <v>0.4773547541349399</v>
+      </c>
+      <c r="F12">
+        <v>0.4910444857813279</v>
+      </c>
+      <c r="G12">
+        <v>0.4917655569358356</v>
+      </c>
+      <c r="H12">
+        <v>0.4883891273984153</v>
       </c>
     </row>
   </sheetData>
@@ -3662,9 +3946,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3698,25 +3982,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4871794871794872</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C2">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="D2">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="E2">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="F2">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="G2">
         <v>0.4358974358974359</v>
       </c>
-      <c r="D2">
-        <v>0.4871794871794872</v>
-      </c>
-      <c r="E2">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="F2">
-        <v>0.4358974358974359</v>
-      </c>
-      <c r="G2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="H2">
-        <v>0.4871794871794872</v>
+        <v>0.358974358974359</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3724,25 +4008,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6052631578947368</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C3">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="D3">
+        <v>0.5526315789473685</v>
+      </c>
+      <c r="E3">
+        <v>0.3947368421052632</v>
+      </c>
+      <c r="F3">
         <v>0.4210526315789473</v>
       </c>
-      <c r="D3">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="E3">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="F3">
-        <v>0.4736842105263158</v>
-      </c>
       <c r="G3">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="H3">
         <v>0.3421052631578947</v>
-      </c>
-      <c r="H3">
-        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3750,25 +4034,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="D4">
+        <v>0.3947368421052632</v>
+      </c>
+      <c r="E4">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="F4">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="G4">
         <v>0.5526315789473685</v>
       </c>
-      <c r="C4">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="D4">
-        <v>0.5</v>
-      </c>
-      <c r="E4">
-        <v>0.4473684210526316</v>
-      </c>
-      <c r="F4">
-        <v>0.4473684210526316</v>
-      </c>
-      <c r="G4">
-        <v>0.3421052631578947</v>
-      </c>
       <c r="H4">
-        <v>0.5789473684210527</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3776,25 +4060,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.6052631578947368</v>
+      </c>
+      <c r="C5">
         <v>0.3947368421052632</v>
       </c>
-      <c r="C5">
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.3421052631578947</v>
+      </c>
+      <c r="F5">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="G5">
+        <v>0.5526315789473685</v>
+      </c>
+      <c r="H5">
         <v>0.4736842105263158</v>
-      </c>
-      <c r="D5">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="E5">
-        <v>0.4473684210526316</v>
-      </c>
-      <c r="F5">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="G5">
-        <v>0.3421052631578947</v>
-      </c>
-      <c r="H5">
-        <v>0.6052631578947368</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3802,25 +4086,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5135135135135135</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C6">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="D6">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="E6">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="F6">
+        <v>0.3243243243243243</v>
+      </c>
+      <c r="G6">
         <v>0.4864864864864865</v>
       </c>
-      <c r="D6">
+      <c r="H6">
         <v>0.4324324324324325</v>
-      </c>
-      <c r="E6">
-        <v>0.4054054054054054</v>
-      </c>
-      <c r="F6">
-        <v>0.4864864864864865</v>
-      </c>
-      <c r="G6">
-        <v>0.3243243243243243</v>
-      </c>
-      <c r="H6">
-        <v>0.5405405405405406</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3828,25 +4112,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6486486486486487</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C7">
-        <v>0.4054054054054054</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="D7">
+        <v>0.7297297297297297</v>
+      </c>
+      <c r="E7">
+        <v>0.6216216216216216</v>
+      </c>
+      <c r="F7">
+        <v>0.6756756756756757</v>
+      </c>
+      <c r="G7">
         <v>0.5945945945945946</v>
       </c>
-      <c r="E7">
-        <v>0.6756756756756757</v>
-      </c>
-      <c r="F7">
-        <v>0.4864864864864865</v>
-      </c>
-      <c r="G7">
-        <v>0.3513513513513514</v>
-      </c>
       <c r="H7">
-        <v>0.6756756756756757</v>
+        <v>0.6216216216216216</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3854,25 +4138,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6944444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C8">
-        <v>0.5277777777777778</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E8">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F8">
         <v>0.5555555555555556</v>
       </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
       <c r="G8">
-        <v>0.3611111111111111</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H8">
-        <v>0.5277777777777778</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3880,25 +4164,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6111111111111112</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="D9">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="E9">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
         <v>0.5277777777777778</v>
       </c>
-      <c r="E9">
-        <v>0.5277777777777778</v>
-      </c>
-      <c r="F9">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="G9">
-        <v>0.3611111111111111</v>
-      </c>
       <c r="H9">
-        <v>0.4722222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3906,25 +4190,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="D10">
         <v>0.6111111111111112</v>
       </c>
-      <c r="C10">
+      <c r="E10">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="F10">
         <v>0.5555555555555556</v>
       </c>
-      <c r="D10">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="E10">
+      <c r="G10">
         <v>0.5833333333333334</v>
       </c>
-      <c r="F10">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="G10">
-        <v>0.3611111111111111</v>
-      </c>
       <c r="H10">
-        <v>0.3888888888888889</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3932,25 +4216,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6764705882352942</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="D11">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="E11">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="F11">
         <v>0.5294117647058824</v>
       </c>
-      <c r="E11">
-        <v>0.5588235294117647</v>
-      </c>
-      <c r="F11">
-        <v>0.4117647058823529</v>
-      </c>
       <c r="G11">
-        <v>0.3529411764705883</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="H11">
-        <v>0.6176470588235294</v>
+        <v>0.6470588235294118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.5125416676500267</v>
+      </c>
+      <c r="C12">
+        <v>0.4831127209610181</v>
+      </c>
+      <c r="D12">
+        <v>0.5469629369784168</v>
+      </c>
+      <c r="E12">
+        <v>0.4166712973988516</v>
+      </c>
+      <c r="F12">
+        <v>0.4942817072848033</v>
+      </c>
+      <c r="G12">
+        <v>0.5499348658017389</v>
+      </c>
+      <c r="H12">
+        <v>0.4796929341820982</v>
       </c>
     </row>
   </sheetData>
@@ -3958,9 +4268,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3994,25 +4304,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4615384615384616</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C2">
-        <v>0.3076923076923077</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="D2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0.4871794871794872</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="F2">
-        <v>0.4358974358974359</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="G2">
-        <v>0.3333333333333333</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="H2">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4020,25 +4330,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C3">
-        <v>0.3947368421052632</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="D3">
-        <v>0.5263157894736842</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="F3">
-        <v>0.4736842105263158</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="G3">
-        <v>0.3421052631578947</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.4054054054054054</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4046,25 +4356,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4473684210526316</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C4">
-        <v>0.4473684210526316</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="D4">
-        <v>0.5526315789473685</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="F4">
-        <v>0.4473684210526316</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="G4">
-        <v>0.3421052631578947</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="H4">
-        <v>0.3947368421052632</v>
+        <v>0.5675675675675675</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4072,25 +4382,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C5">
-        <v>0.4473684210526316</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="D5">
-        <v>0.3684210526315789</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="E5">
-        <v>0.3947368421052632</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="F5">
-        <v>0.4736842105263158</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="G5">
-        <v>0.3421052631578947</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="H5">
-        <v>0.4736842105263158</v>
+        <v>0.4054054054054054</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4098,25 +4408,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4594594594594595</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C6">
-        <v>0.4594594594594595</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="D6">
-        <v>0.4324324324324325</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E6">
-        <v>0.3783783783783784</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="F6">
-        <v>0.4594594594594595</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="G6">
-        <v>0.3513513513513514</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H6">
-        <v>0.5405405405405406</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4124,25 +4434,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6486486486486487</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C7">
-        <v>0.5945945945945946</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="D7">
-        <v>0.6486486486486487</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="E7">
-        <v>0.5945945945945946</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="F7">
-        <v>0.4864864864864865</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G7">
-        <v>0.3513513513513514</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H7">
-        <v>0.5405405405405406</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4150,25 +4460,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6388888888888888</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>0.4166666666666667</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="D8">
-        <v>0.4444444444444444</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="E8">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F8">
-        <v>0.4722222222222222</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="G8">
-        <v>0.3611111111111111</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="H8">
-        <v>0.3888888888888889</v>
+        <v>0.4857142857142857</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4176,25 +4486,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5555555555555556</v>
+        <v>0.4</v>
       </c>
       <c r="C9">
-        <v>0.4722222222222222</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D9">
-        <v>0.4722222222222222</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="E9">
-        <v>0.4444444444444444</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="F9">
-        <v>0.4166666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="G9">
-        <v>0.3611111111111111</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="H9">
-        <v>0.4722222222222222</v>
+        <v>0.3428571428571429</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4202,25 +4512,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6111111111111112</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D10">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="E10">
-        <v>0.5277777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="F10">
-        <v>0.3888888888888889</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="G10">
-        <v>0.3611111111111111</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="H10">
-        <v>0.4444444444444444</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4228,25 +4538,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6764705882352942</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D11">
-        <v>0.4117647058823529</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="F11">
-        <v>0.4411764705882353</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="G11">
-        <v>0.3235294117647059</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
+        <v>0.4848484848484849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.5293790680632785</v>
+      </c>
+      <c r="C12">
+        <v>0.4947885787359472</v>
+      </c>
+      <c r="D12">
+        <v>0.5483770133770134</v>
+      </c>
+      <c r="E12">
+        <v>0.4679438153122364</v>
+      </c>
+      <c r="F12">
+        <v>0.4951043661569977</v>
+      </c>
+      <c r="G12">
+        <v>0.495832404516615</v>
+      </c>
+      <c r="H12">
+        <v>0.4537830037830037</v>
       </c>
     </row>
   </sheetData>
@@ -4254,9 +4590,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4290,25 +4626,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4615384615384616</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="C2">
-        <v>0.4358974358974359</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="D2">
-        <v>0.2564102564102564</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="E2">
-        <v>0.5128205128205128</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="F2">
-        <v>0.4358974358974359</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="G2">
-        <v>0.3333333333333333</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="H2">
-        <v>0.3076923076923077</v>
+        <v>0.3939393939393939</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4316,25 +4652,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5526315789473685</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="C3">
-        <v>0.2631578947368421</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D3">
-        <v>0.3947368421052632</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="E3">
-        <v>0.4210526315789473</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="F3">
-        <v>0.4736842105263158</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="G3">
-        <v>0.3421052631578947</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="H3">
-        <v>0.3684210526315789</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4342,25 +4678,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3947368421052632</v>
+        <v>0.40625</v>
       </c>
       <c r="C4">
-        <v>0.4210526315789473</v>
+        <v>0.28125</v>
       </c>
       <c r="D4">
-        <v>0.2894736842105263</v>
+        <v>0.4375</v>
       </c>
       <c r="E4">
-        <v>0.4210526315789473</v>
+        <v>0.34375</v>
       </c>
       <c r="F4">
-        <v>0.4473684210526316</v>
+        <v>0.40625</v>
       </c>
       <c r="G4">
-        <v>0.3421052631578947</v>
+        <v>0.40625</v>
       </c>
       <c r="H4">
-        <v>0.4473684210526316</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4368,25 +4704,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.46875</v>
       </c>
       <c r="C5">
-        <v>0.4473684210526316</v>
+        <v>0.375</v>
       </c>
       <c r="D5">
-        <v>0.3421052631578947</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0.4473684210526316</v>
+        <v>0.375</v>
       </c>
       <c r="F5">
-        <v>0.4736842105263158</v>
+        <v>0.46875</v>
       </c>
       <c r="G5">
-        <v>0.3421052631578947</v>
+        <v>0.4375</v>
       </c>
       <c r="H5">
-        <v>0.4473684210526316</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4394,25 +4730,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3783783783783784</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C6">
-        <v>0.4054054054054054</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="D6">
-        <v>0.3783783783783784</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="E6">
-        <v>0.3243243243243243</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="F6">
-        <v>0.4594594594594595</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="G6">
-        <v>0.3513513513513514</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="H6">
-        <v>0.4324324324324325</v>
+        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4420,25 +4756,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7297297297297297</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C7">
-        <v>0.4864864864864865</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="D7">
-        <v>0.6216216216216216</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="E7">
-        <v>0.6756756756756757</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="F7">
-        <v>0.4864864864864865</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="G7">
-        <v>0.3513513513513514</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="H7">
-        <v>0.6216216216216216</v>
+        <v>0.5483870967741935</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4446,25 +4782,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C8">
-        <v>0.4166666666666667</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="D8">
-        <v>0.3888888888888889</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E8">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G8">
-        <v>0.3611111111111111</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="H8">
-        <v>0.3888888888888889</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4472,25 +4808,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6388888888888888</v>
+        <v>0.4</v>
       </c>
       <c r="C9">
-        <v>0.4444444444444444</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="D9">
-        <v>0.5555555555555556</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F9">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="G9">
-        <v>0.3611111111111111</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H9">
-        <v>0.6111111111111112</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4498,25 +4834,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6111111111111112</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C10">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>0.5277777777777778</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10">
-        <v>0.5555555555555556</v>
+        <v>0.4</v>
       </c>
       <c r="F10">
-        <v>0.4166666666666667</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3611111111111111</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="H10">
-        <v>0.4166666666666667</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4524,25 +4860,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6470588235294118</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C11">
-        <v>0.6764705882352942</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="D11">
-        <v>0.4117647058823529</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="E11">
-        <v>0.5294117647058824</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="F11">
-        <v>0.4117647058823529</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="G11">
-        <v>0.3529411764705883</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="H11">
-        <v>0.6470588235294118</v>
+        <v>0.4482758620689655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.4798106481949642</v>
+      </c>
+      <c r="C12">
+        <v>0.3547462458286985</v>
+      </c>
+      <c r="D12">
+        <v>0.5161560403815687</v>
+      </c>
+      <c r="E12">
+        <v>0.4120347734856911</v>
+      </c>
+      <c r="F12">
+        <v>0.4360566454309502</v>
+      </c>
+      <c r="G12">
+        <v>0.4930492845586005</v>
+      </c>
+      <c r="H12">
+        <v>0.4537419312704352</v>
       </c>
     </row>
   </sheetData>
@@ -4550,9 +4912,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4586,25 +4948,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C2">
-        <v>0.4210526315789473</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D2">
-        <v>0.4473684210526316</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="E2">
-        <v>0.4210526315789473</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F2">
-        <v>0.4210526315789473</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="G2">
-        <v>0.2631578947368421</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0.5897435897435898</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4612,25 +4974,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5405405405405406</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C3">
-        <v>0.4594594594594595</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="D3">
-        <v>0.5675675675675675</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0.5675675675675675</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>0.4594594594594595</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="G3">
-        <v>0.2432432432432433</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="H3">
-        <v>0.4324324324324325</v>
+        <v>0.3947368421052632</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4638,25 +5000,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5945945945945946</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C4">
-        <v>0.4054054054054054</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D4">
-        <v>0.4864864864864865</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0.4594594594594595</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>0.4324324324324325</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="G4">
-        <v>0.2162162162162162</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="H4">
-        <v>0.5405405405405406</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4664,25 +5026,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5945945945945946</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C5">
-        <v>0.4594594594594595</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="D5">
-        <v>0.5135135135135135</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0.5945945945945946</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="F5">
-        <v>0.4594594594594595</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="G5">
-        <v>0.2432432432432433</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="H5">
-        <v>0.3513513513513514</v>
+        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4690,25 +5052,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4166666666666667</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C6">
-        <v>0.4166666666666667</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="D6">
-        <v>0.2777777777777778</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="E6">
-        <v>0.4722222222222222</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="F6">
-        <v>0.4166666666666667</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="G6">
-        <v>0.1944444444444444</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="H6">
-        <v>0.4166666666666667</v>
+        <v>0.5135135135135135</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4716,25 +5078,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7222222222222222</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C7">
-        <v>0.6388888888888888</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="D7">
-        <v>0.5555555555555556</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="E7">
-        <v>0.5833333333333334</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="F7">
-        <v>0.4722222222222222</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="G7">
-        <v>0.2222222222222222</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="H7">
-        <v>0.5277777777777778</v>
+        <v>0.5135135135135135</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4742,25 +5104,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5428571428571428</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="D8">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E8">
-        <v>0.4857142857142857</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="F8">
-        <v>0.4285714285714285</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G8">
-        <v>0.3428571428571429</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H8">
-        <v>0.5142857142857142</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4768,25 +5130,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4571428571428571</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C9">
-        <v>0.4285714285714285</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D9">
-        <v>0.3142857142857143</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="E9">
-        <v>0.4</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="F9">
-        <v>0.4285714285714285</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="G9">
-        <v>0.2571428571428571</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="H9">
-        <v>0.3428571428571429</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4794,25 +5156,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C10">
-        <v>0.5428571428571428</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="E10">
-        <v>0.5428571428571428</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="F10">
-        <v>0.3714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.2285714285714286</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H10">
-        <v>0.4857142857142857</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4820,617 +5182,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5151515151515151</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C11">
-        <v>0.4242424242424243</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="D11">
-        <v>0.5454545454545454</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="E11">
-        <v>0.4242424242424243</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="F11">
-        <v>0.4242424242424243</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="G11">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="H11">
-        <v>0.4848484848484849</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="C2">
-        <v>0.5151515151515151</v>
-      </c>
-      <c r="D2">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="E2">
-        <v>0.4848484848484849</v>
-      </c>
-      <c r="F2">
-        <v>0.4242424242424243</v>
-      </c>
-      <c r="G2">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="H2">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.4848484848484849</v>
-      </c>
-      <c r="C3">
-        <v>0.4242424242424243</v>
-      </c>
-      <c r="D3">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="E3">
-        <v>0.4848484848484849</v>
-      </c>
-      <c r="F3">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="G3">
-        <v>0.303030303030303</v>
-      </c>
-      <c r="H3">
-        <v>0.4242424242424243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.4375</v>
-      </c>
-      <c r="C4">
-        <v>0.40625</v>
-      </c>
-      <c r="D4">
-        <v>0.34375</v>
-      </c>
-      <c r="E4">
-        <v>0.40625</v>
-      </c>
-      <c r="F4">
-        <v>0.40625</v>
-      </c>
-      <c r="G4">
-        <v>0.25</v>
-      </c>
-      <c r="H4">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.5</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>0.375</v>
-      </c>
-      <c r="E5">
-        <v>0.46875</v>
-      </c>
-      <c r="F5">
-        <v>0.40625</v>
-      </c>
-      <c r="G5">
-        <v>0.21875</v>
-      </c>
-      <c r="H5">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.5483870967741935</v>
-      </c>
-      <c r="C6">
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="D6">
-        <v>0.4516129032258064</v>
-      </c>
-      <c r="E6">
-        <v>0.4516129032258064</v>
-      </c>
-      <c r="F6">
-        <v>0.4193548387096774</v>
-      </c>
-      <c r="G6">
-        <v>0.2903225806451613</v>
-      </c>
-      <c r="H6">
-        <v>0.4516129032258064</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.6451612903225806</v>
-      </c>
-      <c r="C7">
-        <v>0.5161290322580645</v>
-      </c>
-      <c r="D7">
-        <v>0.5161290322580645</v>
-      </c>
-      <c r="E7">
-        <v>0.4516129032258064</v>
-      </c>
-      <c r="F7">
-        <v>0.4516129032258064</v>
-      </c>
-      <c r="G7">
-        <v>0.3870967741935484</v>
-      </c>
-      <c r="H7">
-        <v>0.5161290322580645</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="C8">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="D8">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="E8">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="F8">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="G8">
-        <v>0.4</v>
-      </c>
-      <c r="H8">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="C9">
-        <v>0.4</v>
-      </c>
-      <c r="D9">
-        <v>0.4</v>
-      </c>
-      <c r="E9">
-        <v>0.4</v>
-      </c>
-      <c r="F9">
-        <v>0.4</v>
-      </c>
-      <c r="G9">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="C10">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="D10">
-        <v>0.4</v>
-      </c>
-      <c r="E10">
-        <v>0.3666666666666666</v>
-      </c>
-      <c r="F10">
-        <v>0.3666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.3</v>
-      </c>
-      <c r="H10">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.5517241379310345</v>
-      </c>
-      <c r="C11">
-        <v>0.5172413793103449</v>
-      </c>
-      <c r="D11">
-        <v>0.3793103448275862</v>
-      </c>
-      <c r="E11">
-        <v>0.3793103448275862</v>
-      </c>
-      <c r="F11">
-        <v>0.3793103448275862</v>
-      </c>
-      <c r="G11">
-        <v>0.3103448275862069</v>
-      </c>
-      <c r="H11">
-        <v>0.4482758620689655</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.4871794871794872</v>
-      </c>
-      <c r="C2">
-        <v>0.4615384615384616</v>
-      </c>
-      <c r="D2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E2">
-        <v>0.5128205128205128</v>
-      </c>
-      <c r="F2">
-        <v>0.4358974358974359</v>
-      </c>
-      <c r="G2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H2">
-        <v>0.5897435897435898</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-      <c r="C3">
-        <v>0.2368421052631579</v>
-      </c>
-      <c r="D3">
-        <v>0.5</v>
-      </c>
-      <c r="E3">
-        <v>0.4473684210526316</v>
-      </c>
-      <c r="F3">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="G3">
-        <v>0.3421052631578947</v>
-      </c>
-      <c r="H3">
-        <v>0.5263157894736842</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.5</v>
-      </c>
-      <c r="C4">
-        <v>0.4210526315789473</v>
-      </c>
-      <c r="D4">
-        <v>0.5</v>
-      </c>
-      <c r="E4">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="F4">
-        <v>0.4473684210526316</v>
-      </c>
-      <c r="G4">
-        <v>0.3421052631578947</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.5</v>
-      </c>
-      <c r="C5">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="D5">
-        <v>0.5526315789473685</v>
-      </c>
-      <c r="E5">
-        <v>0.3947368421052632</v>
-      </c>
-      <c r="F5">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="G5">
-        <v>0.3421052631578947</v>
-      </c>
-      <c r="H5">
-        <v>0.4473684210526316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.5135135135135135</v>
-      </c>
-      <c r="C6">
-        <v>0.4324324324324325</v>
-      </c>
-      <c r="D6">
-        <v>0.4594594594594595</v>
-      </c>
-      <c r="E6">
-        <v>0.3783783783783784</v>
-      </c>
-      <c r="F6">
-        <v>0.4594594594594595</v>
-      </c>
-      <c r="G6">
-        <v>0.3513513513513514</v>
-      </c>
-      <c r="H6">
-        <v>0.5405405405405406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.6216216216216216</v>
-      </c>
-      <c r="C7">
-        <v>0.4864864864864865</v>
-      </c>
-      <c r="D7">
-        <v>0.5405405405405406</v>
-      </c>
-      <c r="E7">
-        <v>0.6486486486486487</v>
-      </c>
-      <c r="F7">
-        <v>0.4864864864864865</v>
-      </c>
-      <c r="G7">
-        <v>0.3513513513513514</v>
-      </c>
-      <c r="H7">
-        <v>0.4864864864864865</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C8">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="D8">
-        <v>0.5277777777777778</v>
-      </c>
-      <c r="E8">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="H8">
-        <v>0.4444444444444444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.6388888888888888</v>
-      </c>
-      <c r="C9">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D9">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="E9">
-        <v>0.5277777777777778</v>
-      </c>
-      <c r="F9">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="G9">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="H9">
-        <v>0.5277777777777778</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.6944444444444444</v>
-      </c>
-      <c r="C10">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="D10">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-      <c r="F10">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="G10">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="H10">
-        <v>0.5277777777777778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.6764705882352942</v>
-      </c>
-      <c r="C11">
         <v>0.4705882352941176</v>
-      </c>
-      <c r="D11">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="E11">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="F11">
-        <v>0.4411764705882353</v>
-      </c>
-      <c r="G11">
-        <v>0.3529411764705883</v>
       </c>
       <c r="H11">
         <v>0.4705882352941176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.5218402136358792</v>
+      </c>
+      <c r="C12">
+        <v>0.4847057285911776</v>
+      </c>
+      <c r="D12">
+        <v>0.5798785210549917</v>
+      </c>
+      <c r="E12">
+        <v>0.4884330925352597</v>
+      </c>
+      <c r="F12">
+        <v>0.4949720260865772</v>
+      </c>
+      <c r="G12">
+        <v>0.5390583128973222</v>
+      </c>
+      <c r="H12">
+        <v>0.5012797448555963</v>
       </c>
     </row>
   </sheetData>

--- a/python_module/PosFeature/group2grade_models_score.xlsx
+++ b/python_module/PosFeature/group2grade_models_score.xlsx
@@ -481,7 +481,7 @@
         <v>0.4473684210526316</v>
       </c>
       <c r="G3">
-        <v>0.5263157894736842</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="H3">
         <v>0.5789473684210527</v>
@@ -507,7 +507,7 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="G4">
-        <v>0.3947368421052632</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="H4">
         <v>0.3947368421052632</v>
@@ -559,7 +559,7 @@
         <v>0.3243243243243243</v>
       </c>
       <c r="G6">
-        <v>0.4864864864864865</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="H6">
         <v>0.4864864864864865</v>
@@ -585,10 +585,10 @@
         <v>0.6486486486486487</v>
       </c>
       <c r="G7">
-        <v>0.6756756756756757</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="H7">
-        <v>0.5945945945945946</v>
+        <v>0.5675675675675675</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -611,10 +611,10 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="G8">
-        <v>0.6111111111111112</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H8">
-        <v>0.4444444444444444</v>
+        <v>0.5277777777777778</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -637,10 +637,10 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="G9">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H9">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -663,10 +663,10 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="G10">
-        <v>0.5555555555555556</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H10">
-        <v>0.5555555555555556</v>
+        <v>0.4722222222222222</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -689,10 +689,10 @@
         <v>0.5882352941176471</v>
       </c>
       <c r="G11">
-        <v>0.5882352941176471</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="H11">
-        <v>0.4117647058823529</v>
+        <v>0.4411764705882353</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -715,10 +715,10 @@
         <v>0.4976075563536864</v>
       </c>
       <c r="G12">
-        <v>0.5491962908371576</v>
+        <v>0.5420887963457622</v>
       </c>
       <c r="H12">
-        <v>0.4983736475222543</v>
+        <v>0.4958343435123621</v>
       </c>
     </row>
   </sheetData>
@@ -777,10 +777,10 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="G2">
-        <v>0.4722222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H2">
-        <v>0.3888888888888889</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -803,10 +803,10 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.5277777777777778</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -829,10 +829,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G4">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="H4">
         <v>0.4571428571428571</v>
-      </c>
-      <c r="H4">
-        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -855,10 +855,10 @@
         <v>0.5428571428571428</v>
       </c>
       <c r="G5">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H5">
         <v>0.5428571428571428</v>
-      </c>
-      <c r="H5">
-        <v>0.5142857142857142</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -881,10 +881,10 @@
         <v>0.3823529411764706</v>
       </c>
       <c r="G6">
-        <v>0.4411764705882353</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="H6">
-        <v>0.4117647058823529</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -907,10 +907,10 @@
         <v>0.4848484848484849</v>
       </c>
       <c r="G7">
-        <v>0.4242424242424243</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="H7">
-        <v>0.3939393939393939</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -933,10 +933,10 @@
         <v>0.4242424242424243</v>
       </c>
       <c r="G8">
-        <v>0.6060606060606061</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="H8">
-        <v>0.4545454545454545</v>
+        <v>0.4848484848484849</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -959,10 +959,10 @@
         <v>0.4375</v>
       </c>
       <c r="G9">
-        <v>0.4375</v>
+        <v>0.53125</v>
       </c>
       <c r="H9">
-        <v>0.5</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -985,10 +985,10 @@
         <v>0.3870967741935484</v>
       </c>
       <c r="G10">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="H10">
         <v>0.5483870967741935</v>
-      </c>
-      <c r="H10">
-        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1011,7 +1011,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="H11">
         <v>0.5</v>
@@ -1037,10 +1037,10 @@
         <v>0.449858030700061</v>
       </c>
       <c r="G12">
-        <v>0.4857366597665459</v>
+        <v>0.4993242519392898</v>
       </c>
       <c r="H12">
-        <v>0.451135042482291</v>
+        <v>0.4649749990416499</v>
       </c>
     </row>
   </sheetData>
@@ -1099,7 +1099,7 @@
         <v>0.4871794871794872</v>
       </c>
       <c r="G2">
-        <v>0.3846153846153846</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="H2">
         <v>0.282051282051282</v>
@@ -1125,10 +1125,10 @@
         <v>0.5789473684210527</v>
       </c>
       <c r="G3">
-        <v>0.5263157894736842</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="H3">
-        <v>0.3157894736842105</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1154,7 +1154,7 @@
         <v>0.4594594594594595</v>
       </c>
       <c r="H4">
-        <v>0.4594594594594595</v>
+        <v>0.4324324324324325</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1177,10 +1177,10 @@
         <v>0.4864864864864865</v>
       </c>
       <c r="G5">
-        <v>0.4054054054054054</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="H5">
-        <v>0.3513513513513514</v>
+        <v>0.3783783783783784</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1203,7 +1203,7 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="G6">
-        <v>0.3611111111111111</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H6">
         <v>0.3333333333333333</v>
@@ -1229,10 +1229,10 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="G7">
-        <v>0.5277777777777778</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="H7">
-        <v>0.7222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1255,7 +1255,7 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="G8">
-        <v>0.4571428571428571</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="H8">
         <v>0.4857142857142857</v>
@@ -1281,7 +1281,7 @@
         <v>0.4</v>
       </c>
       <c r="G9">
-        <v>0.4285714285714285</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="H9">
         <v>0.4571428571428571</v>
@@ -1307,10 +1307,10 @@
         <v>0.4848484848484849</v>
       </c>
       <c r="G10">
-        <v>0.3939393939393939</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="H10">
-        <v>0.2727272727272727</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1336,7 +1336,7 @@
         <v>0.3939393939393939</v>
       </c>
       <c r="H11">
-        <v>0.4545454545454545</v>
+        <v>0.4848484848484849</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1359,10 +1359,10 @@
         <v>0.4750571690045374</v>
       </c>
       <c r="G12">
-        <v>0.4338278001435897</v>
+        <v>0.4613926700768806</v>
       </c>
       <c r="H12">
-        <v>0.4134336992231729</v>
+        <v>0.4252625136835663</v>
       </c>
     </row>
   </sheetData>
@@ -1421,10 +1421,10 @@
         <v>0.4358974358974359</v>
       </c>
       <c r="G2">
-        <v>0.5128205128205128</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="H2">
-        <v>0.5384615384615384</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1447,10 +1447,10 @@
         <v>0.5789473684210527</v>
       </c>
       <c r="G3">
-        <v>0.5263157894736842</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="H3">
-        <v>0.5789473684210527</v>
+        <v>0.4736842105263158</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1473,10 +1473,10 @@
         <v>0.5263157894736842</v>
       </c>
       <c r="G4">
-        <v>0.3947368421052632</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="H4">
-        <v>0.4473684210526316</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1525,10 +1525,10 @@
         <v>0.4324324324324325</v>
       </c>
       <c r="G6">
-        <v>0.5675675675675675</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="H6">
-        <v>0.5945945945945946</v>
+        <v>0.6216216216216216</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1551,10 +1551,10 @@
         <v>0.5945945945945946</v>
       </c>
       <c r="G7">
-        <v>0.6756756756756757</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="H7">
-        <v>0.4864864864864865</v>
+        <v>0.5405405405405406</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1577,7 +1577,7 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="H8">
         <v>0.4166666666666667</v>
@@ -1603,10 +1603,10 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="G9">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H9">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1629,10 +1629,10 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="G10">
-        <v>0.5714285714285714</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="H10">
-        <v>0.5142857142857142</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1655,10 +1655,10 @@
         <v>0.4848484848484849</v>
       </c>
       <c r="G11">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="H11">
         <v>0.4545454545454545</v>
-      </c>
-      <c r="H11">
-        <v>0.5151515151515151</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1681,10 +1681,10 @@
         <v>0.495687904635273</v>
       </c>
       <c r="G12">
-        <v>0.5203090413616729</v>
+        <v>0.5249201146569569</v>
       </c>
       <c r="H12">
-        <v>0.5122664059506166</v>
+        <v>0.5082509943036259</v>
       </c>
     </row>
   </sheetData>
@@ -1743,10 +1743,10 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="G2">
-        <v>0.4871794871794872</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="H2">
-        <v>0.3333333333333333</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1769,10 +1769,10 @@
         <v>0.5526315789473685</v>
       </c>
       <c r="G3">
-        <v>0.4473684210526316</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="H3">
-        <v>0.4473684210526316</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1795,10 +1795,10 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.4473684210526316</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="H4">
-        <v>0.2894736842105263</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1821,10 +1821,10 @@
         <v>0.5526315789473685</v>
       </c>
       <c r="G5">
-        <v>0.4210526315789473</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="H5">
-        <v>0.3684210526315789</v>
+        <v>0.3421052631578947</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1847,10 +1847,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="G6">
-        <v>0.5277777777777778</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="H6">
-        <v>0.3611111111111111</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1876,7 +1876,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H7">
-        <v>0.5142857142857142</v>
+        <v>0.5428571428571428</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1899,10 +1899,10 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="G8">
-        <v>0.6</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="H8">
-        <v>0.4857142857142857</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1925,10 +1925,10 @@
         <v>0.3714285714285714</v>
       </c>
       <c r="G9">
-        <v>0.4857142857142857</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="H9">
-        <v>0.4</v>
+        <v>0.3142857142857143</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1951,10 +1951,10 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="G10">
-        <v>0.4857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H10">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1977,10 +1977,10 @@
         <v>0.4411764705882353</v>
       </c>
       <c r="G11">
-        <v>0.4411764705882353</v>
+        <v>0.5</v>
       </c>
       <c r="H11">
-        <v>0.5882352941176471</v>
+        <v>0.5588235294117647</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2003,10 +2003,10 @@
         <v>0.4810359042402387</v>
       </c>
       <c r="G12">
-        <v>0.4914780352086854</v>
+        <v>0.4714211811580233</v>
       </c>
       <c r="H12">
-        <v>0.4187942896456828</v>
+        <v>0.4224725463734751</v>
       </c>
     </row>
   </sheetData>
@@ -2065,10 +2065,10 @@
         <v>0.4193548387096774</v>
       </c>
       <c r="G2">
-        <v>0.3870967741935484</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="H2">
-        <v>0.3548387096774194</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2091,10 +2091,10 @@
         <v>0.4838709677419355</v>
       </c>
       <c r="G3">
-        <v>0.4193548387096774</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="H3">
-        <v>0.4516129032258064</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2117,10 +2117,10 @@
         <v>0.4</v>
       </c>
       <c r="G4">
-        <v>0.4</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2146,7 +2146,7 @@
         <v>0.3793103448275862</v>
       </c>
       <c r="H5">
-        <v>0.4137931034482759</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2172,7 +2172,7 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="H6">
-        <v>0.3928571428571428</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2195,10 +2195,10 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="H7">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2221,7 +2221,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="G8">
-        <v>0.5</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="H8">
         <v>0.3461538461538461</v>
@@ -2247,7 +2247,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="G9">
-        <v>0.4615384615384616</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="H9">
         <v>0.3076923076923077</v>
@@ -2273,7 +2273,7 @@
         <v>0.3461538461538461</v>
       </c>
       <c r="G10">
-        <v>0.3076923076923077</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="H10">
         <v>0.3076923076923077</v>
@@ -2299,10 +2299,10 @@
         <v>0.36</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="H11">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2325,10 +2325,10 @@
         <v>0.4156973438130279</v>
       </c>
       <c r="G12">
-        <v>0.4219278441247296</v>
+        <v>0.4127582825035551</v>
       </c>
       <c r="H12">
-        <v>0.4013101859208644</v>
+        <v>0.3786742126986843</v>
       </c>
     </row>
   </sheetData>
@@ -2387,10 +2387,10 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G2">
-        <v>0.3928571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="H2">
-        <v>0.3928571428571428</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2413,10 +2413,10 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G3">
-        <v>0.3928571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H3">
-        <v>0.3214285714285715</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2439,7 +2439,7 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G4">
-        <v>0.3928571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H4">
         <v>0.3571428571428572</v>
@@ -2465,10 +2465,10 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="G5">
-        <v>0.4074074074074074</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="H5">
-        <v>0.4074074074074074</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2491,10 +2491,10 @@
         <v>0.3703703703703703</v>
       </c>
       <c r="G6">
-        <v>0.3703703703703703</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H6">
-        <v>0.3703703703703703</v>
+        <v>0.4074074074074074</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2517,10 +2517,10 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="G7">
-        <v>0.4615384615384616</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="H7">
-        <v>0.3846153846153846</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2543,10 +2543,10 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="H8">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2569,7 +2569,7 @@
         <v>0.391304347826087</v>
       </c>
       <c r="G9">
-        <v>0.4347826086956522</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="H9">
         <v>0.4347826086956522</v>
@@ -2595,10 +2595,10 @@
         <v>0.2727272727272727</v>
       </c>
       <c r="G10">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="H10">
         <v>0.4545454545454545</v>
-      </c>
-      <c r="H10">
-        <v>0.4090909090909091</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2624,7 +2624,7 @@
         <v>0.4090909090909091</v>
       </c>
       <c r="H11">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2647,10 +2647,10 @@
         <v>0.3860215066736806</v>
       </c>
       <c r="G12">
-        <v>0.4091306640219683</v>
+        <v>0.3876825268129616</v>
       </c>
       <c r="H12">
-        <v>0.4073907372820417</v>
+        <v>0.4088860012773056</v>
       </c>
     </row>
   </sheetData>
@@ -2709,10 +2709,10 @@
         <v>0.4871794871794872</v>
       </c>
       <c r="G2">
-        <v>0.4615384615384616</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="H2">
-        <v>0.4358974358974359</v>
+        <v>0.4102564102564102</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2735,10 +2735,10 @@
         <v>0.6052631578947368</v>
       </c>
       <c r="G3">
-        <v>0.5789473684210527</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="H3">
-        <v>0.5789473684210527</v>
+        <v>0.6052631578947368</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2761,10 +2761,10 @@
         <v>0.4210526315789473</v>
       </c>
       <c r="G4">
-        <v>0.4736842105263158</v>
+        <v>0.5</v>
       </c>
       <c r="H4">
-        <v>0.3947368421052632</v>
+        <v>0.3421052631578947</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2787,7 +2787,7 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.4473684210526316</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="H5">
         <v>0.4473684210526316</v>
@@ -2813,10 +2813,10 @@
         <v>0.4594594594594595</v>
       </c>
       <c r="G6">
-        <v>0.4594594594594595</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="H6">
-        <v>0.2972972972972973</v>
+        <v>0.3513513513513514</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2839,10 +2839,10 @@
         <v>0.5945945945945946</v>
       </c>
       <c r="G7">
-        <v>0.5675675675675675</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="H7">
-        <v>0.5135135135135135</v>
+        <v>0.5405405405405406</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2865,10 +2865,10 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="G8">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H8">
-        <v>0.5833333333333334</v>
+        <v>0.6388888888888888</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2891,7 +2891,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="G9">
-        <v>0.6388888888888888</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="H9">
         <v>0.5555555555555556</v>
@@ -2917,10 +2917,10 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="G10">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="H10">
         <v>0.4722222222222222</v>
-      </c>
-      <c r="H10">
-        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2969,10 +2969,10 @@
         <v>0.5289771552929448</v>
       </c>
       <c r="G12">
-        <v>0.527124522712758</v>
+        <v>0.5192182358591027</v>
       </c>
       <c r="H12">
-        <v>0.4724950420770854</v>
+        <v>0.4892963575626114</v>
       </c>
     </row>
   </sheetData>
@@ -3031,10 +3031,10 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="G2">
-        <v>0.3055555555555556</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H2">
-        <v>0.3611111111111111</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3057,7 +3057,7 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="G3">
-        <v>0.4285714285714285</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="H3">
         <v>0.4857142857142857</v>
@@ -3086,7 +3086,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H4">
-        <v>0.4285714285714285</v>
+        <v>0.3714285714285714</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3109,10 +3109,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G5">
-        <v>0.3714285714285714</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="H5">
-        <v>0.4285714285714285</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3135,10 +3135,10 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="G6">
-        <v>0.5588235294117647</v>
+        <v>0.5</v>
       </c>
       <c r="H6">
-        <v>0.4117647058823529</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3161,7 +3161,7 @@
         <v>0.5757575757575758</v>
       </c>
       <c r="G7">
-        <v>0.5454545454545454</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="H7">
         <v>0.5454545454545454</v>
@@ -3187,7 +3187,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="G8">
-        <v>0.4242424242424243</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="H8">
         <v>0.4848484848484849</v>
@@ -3213,7 +3213,7 @@
         <v>0.4375</v>
       </c>
       <c r="G9">
-        <v>0.46875</v>
+        <v>0.625</v>
       </c>
       <c r="H9">
         <v>0.625</v>
@@ -3239,10 +3239,10 @@
         <v>0.4516129032258064</v>
       </c>
       <c r="G10">
-        <v>0.3870967741935484</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="H10">
-        <v>0.4516129032258064</v>
+        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3265,10 +3265,10 @@
         <v>0.4193548387096774</v>
       </c>
       <c r="G11">
-        <v>0.5483870967741935</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="H11">
-        <v>0.5161290322580645</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3291,10 +3291,10 @@
         <v>0.4509265636851025</v>
       </c>
       <c r="G12">
-        <v>0.4324024211346318</v>
+        <v>0.5018180654470978</v>
       </c>
       <c r="H12">
-        <v>0.4738777925637507</v>
+        <v>0.4649005027230834</v>
       </c>
     </row>
   </sheetData>
@@ -3353,7 +3353,7 @@
         <v>0.5384615384615384</v>
       </c>
       <c r="G2">
-        <v>0.4871794871794872</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="H2">
         <v>0.4615384615384616</v>
@@ -3379,7 +3379,7 @@
         <v>0.5263157894736842</v>
       </c>
       <c r="G3">
-        <v>0.4210526315789473</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="H3">
         <v>0.5</v>
@@ -3405,10 +3405,10 @@
         <v>0.4473684210526316</v>
       </c>
       <c r="G4">
-        <v>0.5</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="H4">
-        <v>0.5789473684210527</v>
+        <v>0.5526315789473685</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3431,7 +3431,7 @@
         <v>0.4473684210526316</v>
       </c>
       <c r="G5">
-        <v>0.4736842105263158</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="H5">
         <v>0.5</v>
@@ -3457,7 +3457,7 @@
         <v>0.4054054054054054</v>
       </c>
       <c r="G6">
-        <v>0.5135135135135135</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="H6">
         <v>0.5135135135135135</v>
@@ -3483,7 +3483,7 @@
         <v>0.6756756756756757</v>
       </c>
       <c r="G7">
-        <v>0.6486486486486487</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="H7">
         <v>0.6756756756756757</v>
@@ -3509,10 +3509,10 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="G8">
-        <v>0.5555555555555556</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H8">
-        <v>0.4722222222222222</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3535,10 +3535,10 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="G9">
-        <v>0.5833333333333334</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="H9">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3561,10 +3561,10 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="G10">
-        <v>0.5</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="H10">
-        <v>0.4166666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3587,10 +3587,10 @@
         <v>0.5588235294117647</v>
       </c>
       <c r="G11">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="H11">
         <v>0.5882352941176471</v>
-      </c>
-      <c r="H11">
-        <v>0.5588235294117647</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3613,10 +3613,10 @@
         <v>0.5266085447199997</v>
       </c>
       <c r="G12">
-        <v>0.5271202674453448</v>
+        <v>0.5476132777216368</v>
       </c>
       <c r="H12">
-        <v>0.5177387437449357</v>
+        <v>0.5180483412681556</v>
       </c>
     </row>
   </sheetData>
@@ -3678,7 +3678,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H2">
-        <v>0.5128205128205128</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3701,10 +3701,10 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.4210526315789473</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.4736842105263158</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3727,10 +3727,10 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.4736842105263158</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="H4">
-        <v>0.3684210526315789</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3753,10 +3753,10 @@
         <v>0.3947368421052632</v>
       </c>
       <c r="G5">
-        <v>0.5263157894736842</v>
+        <v>0.5</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0.4736842105263158</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3779,7 +3779,7 @@
         <v>0.3783783783783784</v>
       </c>
       <c r="G6">
-        <v>0.4864864864864865</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="H6">
         <v>0.5135135135135135</v>
@@ -3805,10 +3805,10 @@
         <v>0.5945945945945946</v>
       </c>
       <c r="G7">
-        <v>0.4864864864864865</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="H7">
-        <v>0.5675675675675675</v>
+        <v>0.5135135135135135</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3831,7 +3831,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="G8">
-        <v>0.4722222222222222</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="H8">
         <v>0.3888888888888889</v>
@@ -3857,10 +3857,10 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="G9">
-        <v>0.4722222222222222</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="H9">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3883,10 +3883,10 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="G10">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H10">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3909,10 +3909,10 @@
         <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.6176470588235294</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="H11">
-        <v>0.5882352941176471</v>
+        <v>0.5294117647058824</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3935,10 +3935,10 @@
         <v>0.4910444857813279</v>
       </c>
       <c r="G12">
-        <v>0.4917655569358356</v>
+        <v>0.520087454684978</v>
       </c>
       <c r="H12">
-        <v>0.4883891273984153</v>
+        <v>0.479665471615936</v>
       </c>
     </row>
   </sheetData>
@@ -3997,10 +3997,10 @@
         <v>0.5128205128205128</v>
       </c>
       <c r="G2">
-        <v>0.4358974358974359</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="H2">
-        <v>0.358974358974359</v>
+        <v>0.4102564102564102</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4023,10 +4023,10 @@
         <v>0.4210526315789473</v>
       </c>
       <c r="G3">
-        <v>0.4473684210526316</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="H3">
-        <v>0.3421052631578947</v>
+        <v>0.3947368421052632</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4052,7 +4052,7 @@
         <v>0.5526315789473685</v>
       </c>
       <c r="H4">
-        <v>0.4210526315789473</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4075,10 +4075,10 @@
         <v>0.4473684210526316</v>
       </c>
       <c r="G5">
-        <v>0.5526315789473685</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="H5">
-        <v>0.4736842105263158</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4104,7 +4104,7 @@
         <v>0.4864864864864865</v>
       </c>
       <c r="H6">
-        <v>0.4324324324324325</v>
+        <v>0.4594594594594595</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4127,10 +4127,10 @@
         <v>0.6756756756756757</v>
       </c>
       <c r="G7">
+        <v>0.6486486486486487</v>
+      </c>
+      <c r="H7">
         <v>0.5945945945945946</v>
-      </c>
-      <c r="H7">
-        <v>0.6216216216216216</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4153,10 +4153,10 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="G8">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H8">
-        <v>0.4444444444444444</v>
+        <v>0.4722222222222222</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4179,10 +4179,10 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.5277777777777778</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="H9">
-        <v>0.5555555555555556</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4208,7 +4208,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H10">
-        <v>0.5</v>
+        <v>0.4722222222222222</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4231,10 +4231,10 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="G11">
-        <v>0.7352941176470589</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="H11">
-        <v>0.6470588235294118</v>
+        <v>0.6764705882352942</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4257,10 +4257,10 @@
         <v>0.4942817072848033</v>
       </c>
       <c r="G12">
-        <v>0.5499348658017389</v>
+        <v>0.5201394297369529</v>
       </c>
       <c r="H12">
-        <v>0.4796929341820982</v>
+        <v>0.4959494502838157</v>
       </c>
     </row>
   </sheetData>
@@ -4319,7 +4319,7 @@
         <v>0.4210526315789473</v>
       </c>
       <c r="G2">
-        <v>0.4736842105263158</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="H2">
         <v>0.5</v>
@@ -4345,10 +4345,10 @@
         <v>0.5675675675675675</v>
       </c>
       <c r="G3">
-        <v>0.4864864864864865</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="H3">
-        <v>0.4054054054054054</v>
+        <v>0.3783783783783784</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4371,10 +4371,10 @@
         <v>0.4594594594594595</v>
       </c>
       <c r="G4">
-        <v>0.5405405405405406</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="H4">
-        <v>0.5675675675675675</v>
+        <v>0.5945945945945946</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4397,10 +4397,10 @@
         <v>0.5945945945945946</v>
       </c>
       <c r="G5">
+        <v>0.5405405405405406</v>
+      </c>
+      <c r="H5">
         <v>0.4324324324324325</v>
-      </c>
-      <c r="H5">
-        <v>0.4054054054054054</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4423,7 +4423,7 @@
         <v>0.4722222222222222</v>
       </c>
       <c r="G6">
-        <v>0.4444444444444444</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="H6">
         <v>0.3888888888888889</v>
@@ -4449,10 +4449,10 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="G7">
-        <v>0.5833333333333334</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="H7">
-        <v>0.5</v>
+        <v>0.5277777777777778</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4478,7 +4478,7 @@
         <v>0.5428571428571428</v>
       </c>
       <c r="H8">
-        <v>0.4857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4501,7 +4501,7 @@
         <v>0.4</v>
       </c>
       <c r="G9">
-        <v>0.4857142857142857</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="H9">
         <v>0.3428571428571429</v>
@@ -4527,7 +4527,7 @@
         <v>0.5428571428571428</v>
       </c>
       <c r="G10">
-        <v>0.5142857142857142</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="H10">
         <v>0.4571428571428571</v>
@@ -4553,10 +4553,10 @@
         <v>0.4242424242424243</v>
       </c>
       <c r="G11">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="H11">
         <v>0.4545454545454545</v>
-      </c>
-      <c r="H11">
-        <v>0.4848484848484849</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4579,10 +4579,10 @@
         <v>0.4951043661569977</v>
       </c>
       <c r="G12">
-        <v>0.495832404516615</v>
+        <v>0.4869861180387495</v>
       </c>
       <c r="H12">
-        <v>0.4537830037830037</v>
+        <v>0.4648046098046098</v>
       </c>
     </row>
   </sheetData>
@@ -4641,7 +4641,7 @@
         <v>0.4848484848484849</v>
       </c>
       <c r="G2">
-        <v>0.4242424242424243</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="H2">
         <v>0.3939393939393939</v>
@@ -4667,10 +4667,10 @@
         <v>0.4848484848484849</v>
       </c>
       <c r="G3">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="H3">
         <v>0.5151515151515151</v>
-      </c>
-      <c r="H3">
-        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4696,7 +4696,7 @@
         <v>0.40625</v>
       </c>
       <c r="H4">
-        <v>0.5625</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4719,10 +4719,10 @@
         <v>0.46875</v>
       </c>
       <c r="G5">
-        <v>0.4375</v>
+        <v>0.3125</v>
       </c>
       <c r="H5">
-        <v>0.34375</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4748,7 +4748,7 @@
         <v>0.5483870967741935</v>
       </c>
       <c r="H6">
-        <v>0.4193548387096774</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4774,7 +4774,7 @@
         <v>0.5483870967741935</v>
       </c>
       <c r="H7">
-        <v>0.5483870967741935</v>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4823,10 +4823,10 @@
         <v>0.4</v>
       </c>
       <c r="G9">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H9">
-        <v>0.4333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4849,10 +4849,10 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10">
         <v>0.4333333333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4875,10 +4875,10 @@
         <v>0.3793103448275862</v>
       </c>
       <c r="G11">
-        <v>0.5172413793103449</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="H11">
-        <v>0.4482758620689655</v>
+        <v>0.4827586206896552</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4901,10 +4901,10 @@
         <v>0.4360566454309502</v>
       </c>
       <c r="G12">
-        <v>0.4930492845586005</v>
+        <v>0.4821062333569285</v>
       </c>
       <c r="H12">
-        <v>0.4537419312704352</v>
+        <v>0.4608516196447231</v>
       </c>
     </row>
   </sheetData>
@@ -4963,7 +4963,7 @@
         <v>0.5128205128205128</v>
       </c>
       <c r="G2">
-        <v>0.5897435897435898</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="H2">
         <v>0.5897435897435898</v>
@@ -4989,10 +4989,10 @@
         <v>0.4473684210526316</v>
       </c>
       <c r="G3">
-        <v>0.4473684210526316</v>
+        <v>0.5</v>
       </c>
       <c r="H3">
-        <v>0.3947368421052632</v>
+        <v>0.5526315789473685</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5015,10 +5015,10 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="G4">
-        <v>0.4473684210526316</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>0.4736842105263158</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5041,7 +5041,7 @@
         <v>0.3947368421052632</v>
       </c>
       <c r="G5">
-        <v>0.5526315789473685</v>
+        <v>0.5</v>
       </c>
       <c r="H5">
         <v>0.4473684210526316</v>
@@ -5067,10 +5067,10 @@
         <v>0.3783783783783784</v>
       </c>
       <c r="G6">
-        <v>0.6486486486486487</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="H6">
-        <v>0.5135135135135135</v>
+        <v>0.5675675675675675</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5093,10 +5093,10 @@
         <v>0.6486486486486487</v>
       </c>
       <c r="G7">
-        <v>0.5675675675675675</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="H7">
-        <v>0.5135135135135135</v>
+        <v>0.5405405405405406</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5119,10 +5119,10 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="G8">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H8">
-        <v>0.4166666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5148,7 +5148,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="H9">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5171,10 +5171,10 @@
         <v>0.5</v>
       </c>
       <c r="G10">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="H10">
         <v>0.5555555555555556</v>
-      </c>
-      <c r="H10">
-        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5197,10 +5197,10 @@
         <v>0.5882352941176471</v>
       </c>
       <c r="G11">
-        <v>0.4705882352941176</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="H11">
-        <v>0.4705882352941176</v>
+        <v>0.5588235294117647</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5223,10 +5223,10 @@
         <v>0.4949720260865772</v>
       </c>
       <c r="G12">
-        <v>0.5390583128973222</v>
+        <v>0.5554745803197815</v>
       </c>
       <c r="H12">
-        <v>0.5012797448555963</v>
+        <v>0.5230359437789778</v>
       </c>
     </row>
   </sheetData>
